--- a/BackTest/2019-10-29 BackTest BCH.xlsx
+++ b/BackTest/2019-10-29 BackTest BCH.xlsx
@@ -14740,14 +14740,10 @@
         <v>33.9096077899992</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>308300</v>
-      </c>
-      <c r="J435" t="n">
-        <v>308300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
@@ -14777,142 +14773,130 @@
         <v>15.3992077899992</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>308100</v>
-      </c>
-      <c r="J436" t="n">
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
+      <c r="L436" t="n">
+        <v>1</v>
+      </c>
+      <c r="M436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="n">
+        <v>308000</v>
+      </c>
+      <c r="C437" t="n">
+        <v>308000</v>
+      </c>
+      <c r="D437" t="n">
+        <v>308000</v>
+      </c>
+      <c r="E437" t="n">
+        <v>308000</v>
+      </c>
+      <c r="F437" t="n">
+        <v>23.4175</v>
+      </c>
+      <c r="G437" t="n">
+        <v>15.3992077899992</v>
+      </c>
+      <c r="H437" t="n">
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>308000</v>
+      </c>
+      <c r="J437" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K437" t="inlineStr"/>
+      <c r="L437" t="n">
+        <v>1</v>
+      </c>
+      <c r="M437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="n">
         <v>308300</v>
       </c>
-      <c r="K436" t="inlineStr">
+      <c r="C438" t="n">
+        <v>308300</v>
+      </c>
+      <c r="D438" t="n">
+        <v>308300</v>
+      </c>
+      <c r="E438" t="n">
+        <v>308300</v>
+      </c>
+      <c r="F438" t="n">
+        <v>9.963699999999999</v>
+      </c>
+      <c r="G438" t="n">
+        <v>25.3629077899992</v>
+      </c>
+      <c r="H438" t="n">
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>308000</v>
+      </c>
+      <c r="J438" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L438" t="n">
+        <v>1</v>
+      </c>
+      <c r="M438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="n">
+        <v>308000</v>
+      </c>
+      <c r="C439" t="n">
+        <v>308000</v>
+      </c>
+      <c r="D439" t="n">
+        <v>308000</v>
+      </c>
+      <c r="E439" t="n">
+        <v>307200</v>
+      </c>
+      <c r="F439" t="n">
+        <v>76.25109999999999</v>
+      </c>
+      <c r="G439" t="n">
+        <v>-50.8881922100008</v>
+      </c>
+      <c r="H439" t="n">
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>308300</v>
+      </c>
+      <c r="J439" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K439" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L436" t="n">
-        <v>1</v>
-      </c>
-      <c r="M436" t="inlineStr"/>
-    </row>
-    <row r="437">
-      <c r="A437" s="1" t="n">
-        <v>435</v>
-      </c>
-      <c r="B437" t="n">
-        <v>308000</v>
-      </c>
-      <c r="C437" t="n">
-        <v>308000</v>
-      </c>
-      <c r="D437" t="n">
-        <v>308000</v>
-      </c>
-      <c r="E437" t="n">
-        <v>308000</v>
-      </c>
-      <c r="F437" t="n">
-        <v>23.4175</v>
-      </c>
-      <c r="G437" t="n">
-        <v>15.3992077899992</v>
-      </c>
-      <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>308000</v>
-      </c>
-      <c r="J437" t="n">
-        <v>308300</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L437" t="n">
-        <v>1</v>
-      </c>
-      <c r="M437" t="inlineStr"/>
-    </row>
-    <row r="438">
-      <c r="A438" s="1" t="n">
-        <v>436</v>
-      </c>
-      <c r="B438" t="n">
-        <v>308300</v>
-      </c>
-      <c r="C438" t="n">
-        <v>308300</v>
-      </c>
-      <c r="D438" t="n">
-        <v>308300</v>
-      </c>
-      <c r="E438" t="n">
-        <v>308300</v>
-      </c>
-      <c r="F438" t="n">
-        <v>9.963699999999999</v>
-      </c>
-      <c r="G438" t="n">
-        <v>25.3629077899992</v>
-      </c>
-      <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>308000</v>
-      </c>
-      <c r="J438" t="n">
-        <v>308300</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L438" t="n">
-        <v>1</v>
-      </c>
-      <c r="M438" t="inlineStr"/>
-    </row>
-    <row r="439">
-      <c r="A439" s="1" t="n">
-        <v>437</v>
-      </c>
-      <c r="B439" t="n">
-        <v>308000</v>
-      </c>
-      <c r="C439" t="n">
-        <v>308000</v>
-      </c>
-      <c r="D439" t="n">
-        <v>308000</v>
-      </c>
-      <c r="E439" t="n">
-        <v>307200</v>
-      </c>
-      <c r="F439" t="n">
-        <v>76.25109999999999</v>
-      </c>
-      <c r="G439" t="n">
-        <v>-50.8881922100008</v>
-      </c>
-      <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>308300</v>
-      </c>
-      <c r="J439" t="n">
-        <v>308300</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14947,7 +14931,7 @@
         <v>308000</v>
       </c>
       <c r="J440" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -14988,7 +14972,7 @@
         <v>307800</v>
       </c>
       <c r="J441" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -15029,7 +15013,7 @@
         <v>307200</v>
       </c>
       <c r="J442" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -15070,7 +15054,7 @@
         <v>307100</v>
       </c>
       <c r="J443" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -15111,7 +15095,7 @@
         <v>307000</v>
       </c>
       <c r="J444" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -15152,7 +15136,7 @@
         <v>307500</v>
       </c>
       <c r="J445" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -15193,7 +15177,7 @@
         <v>308000</v>
       </c>
       <c r="J446" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -15234,7 +15218,7 @@
         <v>307500</v>
       </c>
       <c r="J447" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -15275,7 +15259,7 @@
         <v>308000</v>
       </c>
       <c r="J448" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -15316,7 +15300,7 @@
         <v>308600</v>
       </c>
       <c r="J449" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -15351,13 +15335,11 @@
         <v>-271.9987922100008</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
-      </c>
-      <c r="I450" t="n">
-        <v>308400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -15396,7 +15378,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -15431,13 +15413,11 @@
         <v>-253.0442922100008</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
-      </c>
-      <c r="I452" t="n">
-        <v>308300</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -15472,13 +15452,11 @@
         <v>-290.3802922100008</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
-      </c>
-      <c r="I453" t="n">
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
+      <c r="J453" t="n">
         <v>308000</v>
-      </c>
-      <c r="J453" t="n">
-        <v>308300</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -15513,13 +15491,11 @@
         <v>-290.3802922100008</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" t="n">
-        <v>307800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -15560,7 +15536,7 @@
         <v>307800</v>
       </c>
       <c r="J455" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -15601,7 +15577,7 @@
         <v>307600</v>
       </c>
       <c r="J456" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -15642,7 +15618,7 @@
         <v>307800</v>
       </c>
       <c r="J457" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -15683,7 +15659,7 @@
         <v>307500</v>
       </c>
       <c r="J458" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -15724,7 +15700,7 @@
         <v>307500</v>
       </c>
       <c r="J459" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -15765,7 +15741,7 @@
         <v>308100</v>
       </c>
       <c r="J460" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -15806,7 +15782,7 @@
         <v>308600</v>
       </c>
       <c r="J461" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -15847,7 +15823,7 @@
         <v>308600</v>
       </c>
       <c r="J462" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -15882,11 +15858,13 @@
         <v>-181.2202044000007</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>308200</v>
+      </c>
       <c r="J463" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -15925,7 +15903,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -15964,7 +15942,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -16003,7 +15981,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -16042,7 +16020,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -16081,7 +16059,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -16120,7 +16098,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -16159,7 +16137,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -16198,7 +16176,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -16237,7 +16215,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -16276,7 +16254,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -16315,7 +16293,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -16354,7 +16332,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -16393,7 +16371,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -16432,7 +16410,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -16471,7 +16449,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -16510,7 +16488,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -16549,7 +16527,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -16588,7 +16566,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -16627,7 +16605,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -16666,7 +16644,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -16705,7 +16683,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -16744,7 +16722,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -16783,7 +16761,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -16822,7 +16800,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -16861,7 +16839,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -16900,7 +16878,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -16939,7 +16917,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -16978,7 +16956,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -17017,7 +16995,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -17056,7 +17034,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -17095,7 +17073,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -17134,7 +17112,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -17173,7 +17151,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -17212,7 +17190,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -17251,7 +17229,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -17290,7 +17268,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -17325,11 +17303,13 @@
         <v>-322.9722878700009</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>309400</v>
+      </c>
       <c r="J500" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -17364,11 +17344,13 @@
         <v>-355.8145878700009</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>309300</v>
+      </c>
       <c r="J501" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -17403,11 +17385,13 @@
         <v>-367.5902878700009</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>308200</v>
+      </c>
       <c r="J502" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -17442,11 +17426,13 @@
         <v>-299.0943878700009</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>308000</v>
+      </c>
       <c r="J503" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -17481,11 +17467,13 @@
         <v>-288.1521878700009</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>308600</v>
+      </c>
       <c r="J504" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -17526,7 +17514,7 @@
         <v>308700</v>
       </c>
       <c r="J505" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -17561,11 +17549,13 @@
         <v>-281.9912878700009</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>309000</v>
+      </c>
       <c r="J506" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -17600,11 +17590,13 @@
         <v>-281.9612878700009</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>308900</v>
+      </c>
       <c r="J507" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -17639,11 +17631,13 @@
         <v>-291.6653878700009</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>309000</v>
+      </c>
       <c r="J508" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
@@ -17678,11 +17672,13 @@
         <v>-343.3087878700009</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I509" t="n">
+        <v>308700</v>
+      </c>
       <c r="J509" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -17717,11 +17713,13 @@
         <v>-298.1785878700009</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>307900</v>
+      </c>
       <c r="J510" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -17762,7 +17760,7 @@
         <v>308100</v>
       </c>
       <c r="J511" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -17803,7 +17801,7 @@
         <v>308000</v>
       </c>
       <c r="J512" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -17844,7 +17842,7 @@
         <v>308000</v>
       </c>
       <c r="J513" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -17885,7 +17883,7 @@
         <v>308000</v>
       </c>
       <c r="J514" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -17926,7 +17924,7 @@
         <v>308000</v>
       </c>
       <c r="J515" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -17967,7 +17965,7 @@
         <v>308300</v>
       </c>
       <c r="J516" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -18008,7 +18006,7 @@
         <v>307800</v>
       </c>
       <c r="J517" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -18049,7 +18047,7 @@
         <v>308400</v>
       </c>
       <c r="J518" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K518" t="inlineStr">
         <is>
@@ -18090,7 +18088,7 @@
         <v>307500</v>
       </c>
       <c r="J519" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -18131,7 +18129,7 @@
         <v>307800</v>
       </c>
       <c r="J520" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -18172,7 +18170,7 @@
         <v>307200</v>
       </c>
       <c r="J521" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -18213,7 +18211,7 @@
         <v>307200</v>
       </c>
       <c r="J522" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -18254,7 +18252,7 @@
         <v>307300</v>
       </c>
       <c r="J523" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -18295,7 +18293,7 @@
         <v>307400</v>
       </c>
       <c r="J524" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -18336,7 +18334,7 @@
         <v>307300</v>
       </c>
       <c r="J525" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -18377,7 +18375,7 @@
         <v>307300</v>
       </c>
       <c r="J526" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -18418,7 +18416,7 @@
         <v>307500</v>
       </c>
       <c r="J527" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -18459,7 +18457,7 @@
         <v>307700</v>
       </c>
       <c r="J528" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -18500,7 +18498,7 @@
         <v>307800</v>
       </c>
       <c r="J529" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -18541,7 +18539,7 @@
         <v>308000</v>
       </c>
       <c r="J530" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -18582,7 +18580,7 @@
         <v>308000</v>
       </c>
       <c r="J531" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
@@ -18623,7 +18621,7 @@
         <v>308700</v>
       </c>
       <c r="J532" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K532" t="inlineStr">
         <is>
@@ -18664,7 +18662,7 @@
         <v>309000</v>
       </c>
       <c r="J533" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
@@ -18705,7 +18703,7 @@
         <v>309700</v>
       </c>
       <c r="J534" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
@@ -18746,7 +18744,7 @@
         <v>309300</v>
       </c>
       <c r="J535" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K535" t="inlineStr">
         <is>
@@ -18787,7 +18785,7 @@
         <v>309400</v>
       </c>
       <c r="J536" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K536" t="inlineStr">
         <is>
@@ -18828,7 +18826,7 @@
         <v>309900</v>
       </c>
       <c r="J537" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K537" t="inlineStr">
         <is>
@@ -18869,7 +18867,7 @@
         <v>309500</v>
       </c>
       <c r="J538" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K538" t="inlineStr">
         <is>
@@ -18910,7 +18908,7 @@
         <v>309100</v>
       </c>
       <c r="J539" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>
@@ -18951,7 +18949,7 @@
         <v>309700</v>
       </c>
       <c r="J540" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K540" t="inlineStr">
         <is>
@@ -18992,7 +18990,7 @@
         <v>309700</v>
       </c>
       <c r="J541" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K541" t="inlineStr">
         <is>
@@ -19033,7 +19031,7 @@
         <v>309400</v>
       </c>
       <c r="J542" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K542" t="inlineStr">
         <is>
@@ -19074,7 +19072,7 @@
         <v>309000</v>
       </c>
       <c r="J543" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -19115,7 +19113,7 @@
         <v>309400</v>
       </c>
       <c r="J544" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K544" t="inlineStr">
         <is>
@@ -19156,7 +19154,7 @@
         <v>309100</v>
       </c>
       <c r="J545" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K545" t="inlineStr">
         <is>
@@ -19197,7 +19195,7 @@
         <v>309200</v>
       </c>
       <c r="J546" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K546" t="inlineStr">
         <is>
@@ -19238,7 +19236,7 @@
         <v>309800</v>
       </c>
       <c r="J547" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K547" t="inlineStr">
         <is>
@@ -19279,7 +19277,7 @@
         <v>310200</v>
       </c>
       <c r="J548" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K548" t="inlineStr">
         <is>
@@ -19320,7 +19318,7 @@
         <v>310700</v>
       </c>
       <c r="J549" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K549" t="inlineStr">
         <is>
@@ -19359,7 +19357,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K550" t="inlineStr">
         <is>
@@ -19398,7 +19396,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K551" t="inlineStr">
         <is>
@@ -19437,7 +19435,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K552" t="inlineStr">
         <is>
@@ -19476,7 +19474,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K553" t="inlineStr">
         <is>
@@ -19515,7 +19513,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K554" t="inlineStr">
         <is>
@@ -19554,7 +19552,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K555" t="inlineStr">
         <is>
@@ -19593,7 +19591,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K556" t="inlineStr">
         <is>
@@ -19632,7 +19630,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K557" t="inlineStr">
         <is>
@@ -19671,7 +19669,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K558" t="inlineStr">
         <is>
@@ -19710,7 +19708,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K559" t="inlineStr">
         <is>
@@ -19749,7 +19747,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -19788,7 +19786,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -19827,7 +19825,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K562" t="inlineStr">
         <is>
@@ -19866,7 +19864,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K563" t="inlineStr">
         <is>
@@ -19905,7 +19903,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K564" t="inlineStr">
         <is>
@@ -19944,7 +19942,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K565" t="inlineStr">
         <is>
@@ -19983,7 +19981,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K566" t="inlineStr">
         <is>
@@ -20022,7 +20020,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K567" t="inlineStr">
         <is>
@@ -20061,7 +20059,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K568" t="inlineStr">
         <is>
@@ -20100,7 +20098,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K569" t="inlineStr">
         <is>
@@ -20139,7 +20137,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K570" t="inlineStr">
         <is>
@@ -20178,7 +20176,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K571" t="inlineStr">
         <is>
@@ -20217,7 +20215,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K572" t="inlineStr">
         <is>
@@ -20256,7 +20254,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K573" t="inlineStr">
         <is>
@@ -20295,7 +20293,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K574" t="inlineStr">
         <is>
@@ -20334,7 +20332,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K575" t="inlineStr">
         <is>
@@ -20373,7 +20371,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K576" t="inlineStr">
         <is>
@@ -20412,7 +20410,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K577" t="inlineStr">
         <is>
@@ -20451,7 +20449,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K578" t="inlineStr">
         <is>
@@ -20490,7 +20488,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K579" t="inlineStr">
         <is>
@@ -20529,7 +20527,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K580" t="inlineStr">
         <is>
@@ -20568,7 +20566,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K581" t="inlineStr">
         <is>
@@ -20607,7 +20605,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K582" t="inlineStr">
         <is>
@@ -20646,7 +20644,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K583" t="inlineStr">
         <is>
@@ -20685,7 +20683,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K584" t="inlineStr">
         <is>
@@ -20724,7 +20722,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K585" t="inlineStr">
         <is>
@@ -20763,7 +20761,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K586" t="inlineStr">
         <is>
@@ -20802,7 +20800,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K587" t="inlineStr">
         <is>
@@ -20841,7 +20839,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K588" t="inlineStr">
         <is>
@@ -20880,7 +20878,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K589" t="inlineStr">
         <is>
@@ -20919,7 +20917,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K590" t="inlineStr">
         <is>
@@ -20954,2102 +20952,2480 @@
         <v>3524.65149238</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="n">
-        <v>308300</v>
+        <v>308000</v>
       </c>
       <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L591" t="n">
+        <v>1</v>
+      </c>
+      <c r="M591" t="inlineStr"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="B592" t="n">
+        <v>331500</v>
+      </c>
+      <c r="C592" t="n">
+        <v>327700</v>
+      </c>
+      <c r="D592" t="n">
+        <v>332900</v>
+      </c>
+      <c r="E592" t="n">
+        <v>327100</v>
+      </c>
+      <c r="F592" t="n">
+        <v>774.72852663</v>
+      </c>
+      <c r="G592" t="n">
+        <v>2749.92296575</v>
+      </c>
+      <c r="H592" t="n">
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L592" t="n">
+        <v>1</v>
+      </c>
+      <c r="M592" t="inlineStr"/>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="B593" t="n">
+        <v>327600</v>
+      </c>
+      <c r="C593" t="n">
+        <v>327600</v>
+      </c>
+      <c r="D593" t="n">
+        <v>328500</v>
+      </c>
+      <c r="E593" t="n">
+        <v>327100</v>
+      </c>
+      <c r="F593" t="n">
+        <v>278.6296</v>
+      </c>
+      <c r="G593" t="n">
+        <v>2471.29336575</v>
+      </c>
+      <c r="H593" t="n">
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L593" t="n">
+        <v>1</v>
+      </c>
+      <c r="M593" t="inlineStr"/>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>592</v>
+      </c>
+      <c r="B594" t="n">
+        <v>327900</v>
+      </c>
+      <c r="C594" t="n">
+        <v>327600</v>
+      </c>
+      <c r="D594" t="n">
+        <v>328200</v>
+      </c>
+      <c r="E594" t="n">
+        <v>325800</v>
+      </c>
+      <c r="F594" t="n">
+        <v>199.2155</v>
+      </c>
+      <c r="G594" t="n">
+        <v>2471.29336575</v>
+      </c>
+      <c r="H594" t="n">
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L594" t="n">
+        <v>1</v>
+      </c>
+      <c r="M594" t="inlineStr"/>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="B595" t="n">
+        <v>328500</v>
+      </c>
+      <c r="C595" t="n">
+        <v>327500</v>
+      </c>
+      <c r="D595" t="n">
+        <v>329600</v>
+      </c>
+      <c r="E595" t="n">
+        <v>327500</v>
+      </c>
+      <c r="F595" t="n">
+        <v>225.80117556</v>
+      </c>
+      <c r="G595" t="n">
+        <v>2245.49219019</v>
+      </c>
+      <c r="H595" t="n">
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L595" t="n">
+        <v>1</v>
+      </c>
+      <c r="M595" t="inlineStr"/>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>594</v>
+      </c>
+      <c r="B596" t="n">
+        <v>327800</v>
+      </c>
+      <c r="C596" t="n">
+        <v>327900</v>
+      </c>
+      <c r="D596" t="n">
+        <v>328700</v>
+      </c>
+      <c r="E596" t="n">
+        <v>327300</v>
+      </c>
+      <c r="F596" t="n">
+        <v>108.22029552</v>
+      </c>
+      <c r="G596" t="n">
+        <v>2353.71248571</v>
+      </c>
+      <c r="H596" t="n">
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L596" t="n">
+        <v>1</v>
+      </c>
+      <c r="M596" t="inlineStr"/>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>595</v>
+      </c>
+      <c r="B597" t="n">
+        <v>327900</v>
+      </c>
+      <c r="C597" t="n">
+        <v>328300</v>
+      </c>
+      <c r="D597" t="n">
+        <v>328400</v>
+      </c>
+      <c r="E597" t="n">
+        <v>327600</v>
+      </c>
+      <c r="F597" t="n">
+        <v>49.95080036</v>
+      </c>
+      <c r="G597" t="n">
+        <v>2403.66328607</v>
+      </c>
+      <c r="H597" t="n">
+        <v>0</v>
+      </c>
+      <c r="I597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L597" t="n">
+        <v>1</v>
+      </c>
+      <c r="M597" t="inlineStr"/>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>596</v>
+      </c>
+      <c r="B598" t="n">
+        <v>328400</v>
+      </c>
+      <c r="C598" t="n">
+        <v>328800</v>
+      </c>
+      <c r="D598" t="n">
+        <v>330700</v>
+      </c>
+      <c r="E598" t="n">
+        <v>328100</v>
+      </c>
+      <c r="F598" t="n">
+        <v>464.85376336</v>
+      </c>
+      <c r="G598" t="n">
+        <v>2868.51704943</v>
+      </c>
+      <c r="H598" t="n">
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L598" t="n">
+        <v>1</v>
+      </c>
+      <c r="M598" t="inlineStr"/>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>597</v>
+      </c>
+      <c r="B599" t="n">
+        <v>328700</v>
+      </c>
+      <c r="C599" t="n">
+        <v>326700</v>
+      </c>
+      <c r="D599" t="n">
+        <v>328900</v>
+      </c>
+      <c r="E599" t="n">
+        <v>326700</v>
+      </c>
+      <c r="F599" t="n">
+        <v>158.95982366</v>
+      </c>
+      <c r="G599" t="n">
+        <v>2709.55722577</v>
+      </c>
+      <c r="H599" t="n">
+        <v>0</v>
+      </c>
+      <c r="I599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L599" t="n">
+        <v>1</v>
+      </c>
+      <c r="M599" t="inlineStr"/>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>598</v>
+      </c>
+      <c r="B600" t="n">
+        <v>326700</v>
+      </c>
+      <c r="C600" t="n">
+        <v>329000</v>
+      </c>
+      <c r="D600" t="n">
+        <v>329000</v>
+      </c>
+      <c r="E600" t="n">
+        <v>326000</v>
+      </c>
+      <c r="F600" t="n">
+        <v>172.34961405</v>
+      </c>
+      <c r="G600" t="n">
+        <v>2881.90683982</v>
+      </c>
+      <c r="H600" t="n">
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L600" t="n">
+        <v>1</v>
+      </c>
+      <c r="M600" t="inlineStr"/>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="B601" t="n">
+        <v>329600</v>
+      </c>
+      <c r="C601" t="n">
+        <v>327500</v>
+      </c>
+      <c r="D601" t="n">
+        <v>329900</v>
+      </c>
+      <c r="E601" t="n">
+        <v>327500</v>
+      </c>
+      <c r="F601" t="n">
+        <v>373.80625714</v>
+      </c>
+      <c r="G601" t="n">
+        <v>2508.10058268</v>
+      </c>
+      <c r="H601" t="n">
+        <v>0</v>
+      </c>
+      <c r="I601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L601" t="n">
+        <v>1</v>
+      </c>
+      <c r="M601" t="inlineStr"/>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="B602" t="n">
+        <v>328000</v>
+      </c>
+      <c r="C602" t="n">
+        <v>329100</v>
+      </c>
+      <c r="D602" t="n">
+        <v>330000</v>
+      </c>
+      <c r="E602" t="n">
+        <v>327500</v>
+      </c>
+      <c r="F602" t="n">
+        <v>314.9711548</v>
+      </c>
+      <c r="G602" t="n">
+        <v>2823.07173748</v>
+      </c>
+      <c r="H602" t="n">
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L602" t="n">
+        <v>1</v>
+      </c>
+      <c r="M602" t="inlineStr"/>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="B603" t="n">
+        <v>328600</v>
+      </c>
+      <c r="C603" t="n">
+        <v>328500</v>
+      </c>
+      <c r="D603" t="n">
+        <v>328900</v>
+      </c>
+      <c r="E603" t="n">
+        <v>328000</v>
+      </c>
+      <c r="F603" t="n">
+        <v>31.19534222</v>
+      </c>
+      <c r="G603" t="n">
+        <v>2791.87639526</v>
+      </c>
+      <c r="H603" t="n">
+        <v>0</v>
+      </c>
+      <c r="I603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L603" t="n">
+        <v>1</v>
+      </c>
+      <c r="M603" t="inlineStr"/>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>602</v>
+      </c>
+      <c r="B604" t="n">
+        <v>329000</v>
+      </c>
+      <c r="C604" t="n">
+        <v>329900</v>
+      </c>
+      <c r="D604" t="n">
+        <v>330500</v>
+      </c>
+      <c r="E604" t="n">
+        <v>328500</v>
+      </c>
+      <c r="F604" t="n">
+        <v>363.9113</v>
+      </c>
+      <c r="G604" t="n">
+        <v>3155.78769526</v>
+      </c>
+      <c r="H604" t="n">
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L604" t="n">
+        <v>1</v>
+      </c>
+      <c r="M604" t="inlineStr"/>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="B605" t="n">
+        <v>329900</v>
+      </c>
+      <c r="C605" t="n">
+        <v>330000</v>
+      </c>
+      <c r="D605" t="n">
+        <v>330100</v>
+      </c>
+      <c r="E605" t="n">
+        <v>329000</v>
+      </c>
+      <c r="F605" t="n">
+        <v>269.5463</v>
+      </c>
+      <c r="G605" t="n">
+        <v>3425.33399526</v>
+      </c>
+      <c r="H605" t="n">
+        <v>0</v>
+      </c>
+      <c r="I605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L605" t="n">
+        <v>1</v>
+      </c>
+      <c r="M605" t="inlineStr"/>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="B606" t="n">
+        <v>330000</v>
+      </c>
+      <c r="C606" t="n">
+        <v>330700</v>
+      </c>
+      <c r="D606" t="n">
+        <v>332000</v>
+      </c>
+      <c r="E606" t="n">
+        <v>330000</v>
+      </c>
+      <c r="F606" t="n">
+        <v>460.60678992</v>
+      </c>
+      <c r="G606" t="n">
+        <v>3885.94078518</v>
+      </c>
+      <c r="H606" t="n">
+        <v>0</v>
+      </c>
+      <c r="I606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L606" t="n">
+        <v>1</v>
+      </c>
+      <c r="M606" t="inlineStr"/>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="B607" t="n">
+        <v>330700</v>
+      </c>
+      <c r="C607" t="n">
+        <v>329600</v>
+      </c>
+      <c r="D607" t="n">
+        <v>330700</v>
+      </c>
+      <c r="E607" t="n">
+        <v>328800</v>
+      </c>
+      <c r="F607" t="n">
+        <v>364.13225204</v>
+      </c>
+      <c r="G607" t="n">
+        <v>3521.80853314</v>
+      </c>
+      <c r="H607" t="n">
+        <v>0</v>
+      </c>
+      <c r="I607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L607" t="n">
+        <v>1</v>
+      </c>
+      <c r="M607" t="inlineStr"/>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="B608" t="n">
+        <v>329600</v>
+      </c>
+      <c r="C608" t="n">
+        <v>330700</v>
+      </c>
+      <c r="D608" t="n">
+        <v>331100</v>
+      </c>
+      <c r="E608" t="n">
+        <v>329600</v>
+      </c>
+      <c r="F608" t="n">
+        <v>100.4341</v>
+      </c>
+      <c r="G608" t="n">
+        <v>3622.24263314</v>
+      </c>
+      <c r="H608" t="n">
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L608" t="n">
+        <v>1</v>
+      </c>
+      <c r="M608" t="inlineStr"/>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="B609" t="n">
+        <v>330700</v>
+      </c>
+      <c r="C609" t="n">
+        <v>331100</v>
+      </c>
+      <c r="D609" t="n">
+        <v>332000</v>
+      </c>
+      <c r="E609" t="n">
+        <v>330500</v>
+      </c>
+      <c r="F609" t="n">
+        <v>319.5068</v>
+      </c>
+      <c r="G609" t="n">
+        <v>3941.74943314</v>
+      </c>
+      <c r="H609" t="n">
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L609" t="n">
+        <v>1</v>
+      </c>
+      <c r="M609" t="inlineStr"/>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>608</v>
+      </c>
+      <c r="B610" t="n">
+        <v>332000</v>
+      </c>
+      <c r="C610" t="n">
+        <v>331500</v>
+      </c>
+      <c r="D610" t="n">
+        <v>332500</v>
+      </c>
+      <c r="E610" t="n">
+        <v>331100</v>
+      </c>
+      <c r="F610" t="n">
+        <v>361.5545</v>
+      </c>
+      <c r="G610" t="n">
+        <v>4303.30393314</v>
+      </c>
+      <c r="H610" t="n">
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L610" t="n">
+        <v>1</v>
+      </c>
+      <c r="M610" t="inlineStr"/>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>609</v>
+      </c>
+      <c r="B611" t="n">
+        <v>331300</v>
+      </c>
+      <c r="C611" t="n">
+        <v>330000</v>
+      </c>
+      <c r="D611" t="n">
+        <v>331600</v>
+      </c>
+      <c r="E611" t="n">
+        <v>329000</v>
+      </c>
+      <c r="F611" t="n">
+        <v>322.2447</v>
+      </c>
+      <c r="G611" t="n">
+        <v>3981.059233139999</v>
+      </c>
+      <c r="H611" t="n">
+        <v>0</v>
+      </c>
+      <c r="I611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L611" t="n">
+        <v>1</v>
+      </c>
+      <c r="M611" t="inlineStr"/>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="B612" t="n">
+        <v>330100</v>
+      </c>
+      <c r="C612" t="n">
+        <v>330300</v>
+      </c>
+      <c r="D612" t="n">
+        <v>331100</v>
+      </c>
+      <c r="E612" t="n">
+        <v>329400</v>
+      </c>
+      <c r="F612" t="n">
+        <v>213.67047663</v>
+      </c>
+      <c r="G612" t="n">
+        <v>4194.729709769999</v>
+      </c>
+      <c r="H612" t="n">
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L612" t="n">
+        <v>1</v>
+      </c>
+      <c r="M612" t="inlineStr"/>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>611</v>
+      </c>
+      <c r="B613" t="n">
+        <v>330300</v>
+      </c>
+      <c r="C613" t="n">
+        <v>329300</v>
+      </c>
+      <c r="D613" t="n">
+        <v>330300</v>
+      </c>
+      <c r="E613" t="n">
+        <v>328300</v>
+      </c>
+      <c r="F613" t="n">
+        <v>102.1972</v>
+      </c>
+      <c r="G613" t="n">
+        <v>4092.532509769999</v>
+      </c>
+      <c r="H613" t="n">
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L613" t="n">
+        <v>1</v>
+      </c>
+      <c r="M613" t="inlineStr"/>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n">
+        <v>612</v>
+      </c>
+      <c r="B614" t="n">
+        <v>329700</v>
+      </c>
+      <c r="C614" t="n">
+        <v>328900</v>
+      </c>
+      <c r="D614" t="n">
+        <v>331300</v>
+      </c>
+      <c r="E614" t="n">
+        <v>328900</v>
+      </c>
+      <c r="F614" t="n">
+        <v>333.33685454</v>
+      </c>
+      <c r="G614" t="n">
+        <v>3759.195655229999</v>
+      </c>
+      <c r="H614" t="n">
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L614" t="n">
+        <v>1</v>
+      </c>
+      <c r="M614" t="inlineStr"/>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="n">
+        <v>613</v>
+      </c>
+      <c r="B615" t="n">
+        <v>328400</v>
+      </c>
+      <c r="C615" t="n">
+        <v>329400</v>
+      </c>
+      <c r="D615" t="n">
+        <v>330800</v>
+      </c>
+      <c r="E615" t="n">
+        <v>328400</v>
+      </c>
+      <c r="F615" t="n">
+        <v>198.24299946</v>
+      </c>
+      <c r="G615" t="n">
+        <v>3957.43865469</v>
+      </c>
+      <c r="H615" t="n">
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L615" t="n">
+        <v>1</v>
+      </c>
+      <c r="M615" t="inlineStr"/>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="B616" t="n">
+        <v>329400</v>
+      </c>
+      <c r="C616" t="n">
+        <v>330000</v>
+      </c>
+      <c r="D616" t="n">
+        <v>330500</v>
+      </c>
+      <c r="E616" t="n">
+        <v>329000</v>
+      </c>
+      <c r="F616" t="n">
+        <v>66.5574</v>
+      </c>
+      <c r="G616" t="n">
+        <v>4023.99605469</v>
+      </c>
+      <c r="H616" t="n">
+        <v>0</v>
+      </c>
+      <c r="I616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L616" t="n">
+        <v>1</v>
+      </c>
+      <c r="M616" t="inlineStr"/>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>615</v>
+      </c>
+      <c r="B617" t="n">
+        <v>330000</v>
+      </c>
+      <c r="C617" t="n">
+        <v>330000</v>
+      </c>
+      <c r="D617" t="n">
+        <v>330700</v>
+      </c>
+      <c r="E617" t="n">
+        <v>330000</v>
+      </c>
+      <c r="F617" t="n">
+        <v>172.33</v>
+      </c>
+      <c r="G617" t="n">
+        <v>4023.99605469</v>
+      </c>
+      <c r="H617" t="n">
+        <v>0</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L617" t="n">
+        <v>1</v>
+      </c>
+      <c r="M617" t="inlineStr"/>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>616</v>
+      </c>
+      <c r="B618" t="n">
+        <v>330000</v>
+      </c>
+      <c r="C618" t="n">
+        <v>329700</v>
+      </c>
+      <c r="D618" t="n">
+        <v>330200</v>
+      </c>
+      <c r="E618" t="n">
+        <v>329000</v>
+      </c>
+      <c r="F618" t="n">
+        <v>95.0222</v>
+      </c>
+      <c r="G618" t="n">
+        <v>3928.97385469</v>
+      </c>
+      <c r="H618" t="n">
+        <v>0</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L618" t="n">
+        <v>1</v>
+      </c>
+      <c r="M618" t="inlineStr"/>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="B619" t="n">
+        <v>329700</v>
+      </c>
+      <c r="C619" t="n">
+        <v>329100</v>
+      </c>
+      <c r="D619" t="n">
+        <v>329700</v>
+      </c>
+      <c r="E619" t="n">
+        <v>329100</v>
+      </c>
+      <c r="F619" t="n">
+        <v>26.3865</v>
+      </c>
+      <c r="G619" t="n">
+        <v>3902.58735469</v>
+      </c>
+      <c r="H619" t="n">
+        <v>0</v>
+      </c>
+      <c r="I619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L619" t="n">
+        <v>1</v>
+      </c>
+      <c r="M619" t="inlineStr"/>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>618</v>
+      </c>
+      <c r="B620" t="n">
+        <v>329000</v>
+      </c>
+      <c r="C620" t="n">
+        <v>328700</v>
+      </c>
+      <c r="D620" t="n">
+        <v>329700</v>
+      </c>
+      <c r="E620" t="n">
+        <v>328700</v>
+      </c>
+      <c r="F620" t="n">
+        <v>76.831</v>
+      </c>
+      <c r="G620" t="n">
+        <v>3825.75635469</v>
+      </c>
+      <c r="H620" t="n">
+        <v>0</v>
+      </c>
+      <c r="I620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L620" t="n">
+        <v>1</v>
+      </c>
+      <c r="M620" t="inlineStr"/>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="n">
+        <v>619</v>
+      </c>
+      <c r="B621" t="n">
+        <v>328800</v>
+      </c>
+      <c r="C621" t="n">
+        <v>328800</v>
+      </c>
+      <c r="D621" t="n">
+        <v>328900</v>
+      </c>
+      <c r="E621" t="n">
+        <v>327600</v>
+      </c>
+      <c r="F621" t="n">
+        <v>184.9252</v>
+      </c>
+      <c r="G621" t="n">
+        <v>4010.68155469</v>
+      </c>
+      <c r="H621" t="n">
+        <v>0</v>
+      </c>
+      <c r="I621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L621" t="n">
+        <v>1</v>
+      </c>
+      <c r="M621" t="inlineStr"/>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n">
+        <v>620</v>
+      </c>
+      <c r="B622" t="n">
+        <v>328800</v>
+      </c>
+      <c r="C622" t="n">
+        <v>328000</v>
+      </c>
+      <c r="D622" t="n">
+        <v>328800</v>
+      </c>
+      <c r="E622" t="n">
+        <v>327700</v>
+      </c>
+      <c r="F622" t="n">
+        <v>46.09090072</v>
+      </c>
+      <c r="G622" t="n">
+        <v>3964.59065397</v>
+      </c>
+      <c r="H622" t="n">
+        <v>0</v>
+      </c>
+      <c r="I622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L622" t="n">
+        <v>1</v>
+      </c>
+      <c r="M622" t="inlineStr"/>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="B623" t="n">
+        <v>328000</v>
+      </c>
+      <c r="C623" t="n">
+        <v>327800</v>
+      </c>
+      <c r="D623" t="n">
+        <v>328800</v>
+      </c>
+      <c r="E623" t="n">
+        <v>326800</v>
+      </c>
+      <c r="F623" t="n">
+        <v>188.8601</v>
+      </c>
+      <c r="G623" t="n">
+        <v>3775.73055397</v>
+      </c>
+      <c r="H623" t="n">
+        <v>0</v>
+      </c>
+      <c r="I623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L623" t="n">
+        <v>1</v>
+      </c>
+      <c r="M623" t="inlineStr"/>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="n">
+        <v>622</v>
+      </c>
+      <c r="B624" t="n">
+        <v>327800</v>
+      </c>
+      <c r="C624" t="n">
+        <v>328500</v>
+      </c>
+      <c r="D624" t="n">
+        <v>328900</v>
+      </c>
+      <c r="E624" t="n">
+        <v>327800</v>
+      </c>
+      <c r="F624" t="n">
+        <v>94.16729671</v>
+      </c>
+      <c r="G624" t="n">
+        <v>3869.89785068</v>
+      </c>
+      <c r="H624" t="n">
+        <v>0</v>
+      </c>
+      <c r="I624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L624" t="n">
+        <v>1</v>
+      </c>
+      <c r="M624" t="inlineStr"/>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="B625" t="n">
+        <v>328100</v>
+      </c>
+      <c r="C625" t="n">
+        <v>328600</v>
+      </c>
+      <c r="D625" t="n">
+        <v>328600</v>
+      </c>
+      <c r="E625" t="n">
+        <v>328000</v>
+      </c>
+      <c r="F625" t="n">
+        <v>42.0619</v>
+      </c>
+      <c r="G625" t="n">
+        <v>3911.95975068</v>
+      </c>
+      <c r="H625" t="n">
+        <v>0</v>
+      </c>
+      <c r="I625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L625" t="n">
+        <v>1</v>
+      </c>
+      <c r="M625" t="inlineStr"/>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="n">
+        <v>624</v>
+      </c>
+      <c r="B626" t="n">
+        <v>328200</v>
+      </c>
+      <c r="C626" t="n">
+        <v>328000</v>
+      </c>
+      <c r="D626" t="n">
+        <v>328700</v>
+      </c>
+      <c r="E626" t="n">
+        <v>328000</v>
+      </c>
+      <c r="F626" t="n">
+        <v>35.5188</v>
+      </c>
+      <c r="G626" t="n">
+        <v>3876.44095068</v>
+      </c>
+      <c r="H626" t="n">
+        <v>0</v>
+      </c>
+      <c r="I626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L626" t="n">
+        <v>1</v>
+      </c>
+      <c r="M626" t="inlineStr"/>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="B627" t="n">
+        <v>328200</v>
+      </c>
+      <c r="C627" t="n">
+        <v>327600</v>
+      </c>
+      <c r="D627" t="n">
+        <v>328200</v>
+      </c>
+      <c r="E627" t="n">
+        <v>327200</v>
+      </c>
+      <c r="F627" t="n">
+        <v>66.71850865</v>
+      </c>
+      <c r="G627" t="n">
+        <v>3809.72244203</v>
+      </c>
+      <c r="H627" t="n">
+        <v>0</v>
+      </c>
+      <c r="I627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L627" t="n">
+        <v>1</v>
+      </c>
+      <c r="M627" t="inlineStr"/>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="n">
+        <v>626</v>
+      </c>
+      <c r="B628" t="n">
+        <v>328200</v>
+      </c>
+      <c r="C628" t="n">
+        <v>327900</v>
+      </c>
+      <c r="D628" t="n">
+        <v>329000</v>
+      </c>
+      <c r="E628" t="n">
+        <v>327900</v>
+      </c>
+      <c r="F628" t="n">
+        <v>85.3272465</v>
+      </c>
+      <c r="G628" t="n">
+        <v>3895.04968853</v>
+      </c>
+      <c r="H628" t="n">
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L628" t="n">
+        <v>1</v>
+      </c>
+      <c r="M628" t="inlineStr"/>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n">
+        <v>627</v>
+      </c>
+      <c r="B629" t="n">
+        <v>328000</v>
+      </c>
+      <c r="C629" t="n">
+        <v>328600</v>
+      </c>
+      <c r="D629" t="n">
+        <v>329500</v>
+      </c>
+      <c r="E629" t="n">
+        <v>327900</v>
+      </c>
+      <c r="F629" t="n">
+        <v>91.14360000000001</v>
+      </c>
+      <c r="G629" t="n">
+        <v>3986.19328853</v>
+      </c>
+      <c r="H629" t="n">
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L629" t="n">
+        <v>1</v>
+      </c>
+      <c r="M629" t="inlineStr"/>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="n">
+        <v>628</v>
+      </c>
+      <c r="B630" t="n">
+        <v>328600</v>
+      </c>
+      <c r="C630" t="n">
+        <v>329100</v>
+      </c>
+      <c r="D630" t="n">
+        <v>329500</v>
+      </c>
+      <c r="E630" t="n">
+        <v>328600</v>
+      </c>
+      <c r="F630" t="n">
+        <v>78.1246</v>
+      </c>
+      <c r="G630" t="n">
+        <v>4064.31788853</v>
+      </c>
+      <c r="H630" t="n">
+        <v>0</v>
+      </c>
+      <c r="I630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L630" t="n">
+        <v>1</v>
+      </c>
+      <c r="M630" t="inlineStr"/>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="n">
+        <v>629</v>
+      </c>
+      <c r="B631" t="n">
+        <v>328800</v>
+      </c>
+      <c r="C631" t="n">
+        <v>328900</v>
+      </c>
+      <c r="D631" t="n">
+        <v>329200</v>
+      </c>
+      <c r="E631" t="n">
+        <v>328800</v>
+      </c>
+      <c r="F631" t="n">
+        <v>35.5776</v>
+      </c>
+      <c r="G631" t="n">
+        <v>4028.74028853</v>
+      </c>
+      <c r="H631" t="n">
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L631" t="n">
+        <v>1</v>
+      </c>
+      <c r="M631" t="inlineStr"/>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
+        <v>630</v>
+      </c>
+      <c r="B632" t="n">
+        <v>328900</v>
+      </c>
+      <c r="C632" t="n">
+        <v>329600</v>
+      </c>
+      <c r="D632" t="n">
+        <v>329700</v>
+      </c>
+      <c r="E632" t="n">
+        <v>328800</v>
+      </c>
+      <c r="F632" t="n">
+        <v>58.2947</v>
+      </c>
+      <c r="G632" t="n">
+        <v>4087.03498853</v>
+      </c>
+      <c r="H632" t="n">
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L632" t="n">
+        <v>1</v>
+      </c>
+      <c r="M632" t="inlineStr"/>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="B633" t="n">
+        <v>329800</v>
+      </c>
+      <c r="C633" t="n">
+        <v>329300</v>
+      </c>
+      <c r="D633" t="n">
+        <v>330000</v>
+      </c>
+      <c r="E633" t="n">
+        <v>329300</v>
+      </c>
+      <c r="F633" t="n">
+        <v>28.7106</v>
+      </c>
+      <c r="G633" t="n">
+        <v>4058.32438853</v>
+      </c>
+      <c r="H633" t="n">
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L633" t="n">
+        <v>1</v>
+      </c>
+      <c r="M633" t="inlineStr"/>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>632</v>
+      </c>
+      <c r="B634" t="n">
+        <v>329500</v>
+      </c>
+      <c r="C634" t="n">
+        <v>330800</v>
+      </c>
+      <c r="D634" t="n">
+        <v>331200</v>
+      </c>
+      <c r="E634" t="n">
+        <v>329500</v>
+      </c>
+      <c r="F634" t="n">
+        <v>181.4326</v>
+      </c>
+      <c r="G634" t="n">
+        <v>4239.75698853</v>
+      </c>
+      <c r="H634" t="n">
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L634" t="n">
+        <v>1</v>
+      </c>
+      <c r="M634" t="inlineStr"/>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="B635" t="n">
+        <v>331000</v>
+      </c>
+      <c r="C635" t="n">
+        <v>330200</v>
+      </c>
+      <c r="D635" t="n">
+        <v>332000</v>
+      </c>
+      <c r="E635" t="n">
+        <v>330200</v>
+      </c>
+      <c r="F635" t="n">
+        <v>538.4945</v>
+      </c>
+      <c r="G635" t="n">
+        <v>3701.26248853</v>
+      </c>
+      <c r="H635" t="n">
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L635" t="n">
+        <v>1</v>
+      </c>
+      <c r="M635" t="inlineStr"/>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>634</v>
+      </c>
+      <c r="B636" t="n">
+        <v>330200</v>
+      </c>
+      <c r="C636" t="n">
+        <v>331100</v>
+      </c>
+      <c r="D636" t="n">
+        <v>331700</v>
+      </c>
+      <c r="E636" t="n">
+        <v>330200</v>
+      </c>
+      <c r="F636" t="n">
+        <v>154.21743749</v>
+      </c>
+      <c r="G636" t="n">
+        <v>3855.47992602</v>
+      </c>
+      <c r="H636" t="n">
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L636" t="n">
+        <v>1</v>
+      </c>
+      <c r="M636" t="inlineStr"/>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>635</v>
+      </c>
+      <c r="B637" t="n">
+        <v>331100</v>
+      </c>
+      <c r="C637" t="n">
+        <v>333800</v>
+      </c>
+      <c r="D637" t="n">
+        <v>334400</v>
+      </c>
+      <c r="E637" t="n">
+        <v>331100</v>
+      </c>
+      <c r="F637" t="n">
+        <v>1019.56984086</v>
+      </c>
+      <c r="G637" t="n">
+        <v>4875.04976688</v>
+      </c>
+      <c r="H637" t="n">
+        <v>0</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L637" t="n">
+        <v>1</v>
+      </c>
+      <c r="M637" t="inlineStr"/>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="B638" t="n">
+        <v>333600</v>
+      </c>
+      <c r="C638" t="n">
+        <v>333700</v>
+      </c>
+      <c r="D638" t="n">
+        <v>333700</v>
+      </c>
+      <c r="E638" t="n">
+        <v>331900</v>
+      </c>
+      <c r="F638" t="n">
+        <v>308.6183</v>
+      </c>
+      <c r="G638" t="n">
+        <v>4566.43146688</v>
+      </c>
+      <c r="H638" t="n">
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L638" t="n">
+        <v>1</v>
+      </c>
+      <c r="M638" t="inlineStr"/>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
+        <v>637</v>
+      </c>
+      <c r="B639" t="n">
+        <v>333500</v>
+      </c>
+      <c r="C639" t="n">
+        <v>333300</v>
+      </c>
+      <c r="D639" t="n">
+        <v>335000</v>
+      </c>
+      <c r="E639" t="n">
+        <v>333200</v>
+      </c>
+      <c r="F639" t="n">
+        <v>454.80667272</v>
+      </c>
+      <c r="G639" t="n">
+        <v>4111.62479416</v>
+      </c>
+      <c r="H639" t="n">
+        <v>0</v>
+      </c>
+      <c r="I639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L639" t="n">
+        <v>1</v>
+      </c>
+      <c r="M639" t="inlineStr"/>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
+        <v>638</v>
+      </c>
+      <c r="B640" t="n">
+        <v>333300</v>
+      </c>
+      <c r="C640" t="n">
+        <v>332200</v>
+      </c>
+      <c r="D640" t="n">
+        <v>333400</v>
+      </c>
+      <c r="E640" t="n">
+        <v>331000</v>
+      </c>
+      <c r="F640" t="n">
+        <v>369.0041</v>
+      </c>
+      <c r="G640" t="n">
+        <v>3742.620694159999</v>
+      </c>
+      <c r="H640" t="n">
+        <v>0</v>
+      </c>
+      <c r="I640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L640" t="n">
+        <v>1</v>
+      </c>
+      <c r="M640" t="inlineStr"/>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>639</v>
+      </c>
+      <c r="B641" t="n">
+        <v>331700</v>
+      </c>
+      <c r="C641" t="n">
+        <v>332500</v>
+      </c>
+      <c r="D641" t="n">
+        <v>332500</v>
+      </c>
+      <c r="E641" t="n">
+        <v>331100</v>
+      </c>
+      <c r="F641" t="n">
+        <v>153.4096</v>
+      </c>
+      <c r="G641" t="n">
+        <v>3896.030294159999</v>
+      </c>
+      <c r="H641" t="n">
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L641" t="n">
+        <v>1</v>
+      </c>
+      <c r="M641" t="inlineStr"/>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="B642" t="n">
+        <v>332000</v>
+      </c>
+      <c r="C642" t="n">
+        <v>331900</v>
+      </c>
+      <c r="D642" t="n">
+        <v>332000</v>
+      </c>
+      <c r="E642" t="n">
+        <v>330200</v>
+      </c>
+      <c r="F642" t="n">
+        <v>252.3836</v>
+      </c>
+      <c r="G642" t="n">
+        <v>3643.646694159999</v>
+      </c>
+      <c r="H642" t="n">
+        <v>0</v>
+      </c>
+      <c r="I642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L642" t="n">
+        <v>1</v>
+      </c>
+      <c r="M642" t="inlineStr"/>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>641</v>
+      </c>
+      <c r="B643" t="n">
+        <v>331900</v>
+      </c>
+      <c r="C643" t="n">
+        <v>331100</v>
+      </c>
+      <c r="D643" t="n">
+        <v>332600</v>
+      </c>
+      <c r="E643" t="n">
+        <v>331000</v>
+      </c>
+      <c r="F643" t="n">
+        <v>434.9205</v>
+      </c>
+      <c r="G643" t="n">
+        <v>3208.726194159999</v>
+      </c>
+      <c r="H643" t="n">
+        <v>0</v>
+      </c>
+      <c r="I643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L643" t="n">
+        <v>1</v>
+      </c>
+      <c r="M643" t="inlineStr"/>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
+        <v>642</v>
+      </c>
+      <c r="B644" t="n">
+        <v>331200</v>
+      </c>
+      <c r="C644" t="n">
+        <v>332500</v>
+      </c>
+      <c r="D644" t="n">
+        <v>333100</v>
+      </c>
+      <c r="E644" t="n">
+        <v>331200</v>
+      </c>
+      <c r="F644" t="n">
+        <v>271.9882</v>
+      </c>
+      <c r="G644" t="n">
+        <v>3480.714394159999</v>
+      </c>
+      <c r="H644" t="n">
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L644" t="n">
+        <v>1</v>
+      </c>
+      <c r="M644" t="inlineStr"/>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="n">
+        <v>643</v>
+      </c>
+      <c r="B645" t="n">
+        <v>332500</v>
+      </c>
+      <c r="C645" t="n">
+        <v>332100</v>
+      </c>
+      <c r="D645" t="n">
+        <v>333000</v>
+      </c>
+      <c r="E645" t="n">
+        <v>332000</v>
+      </c>
+      <c r="F645" t="n">
+        <v>201.72377579</v>
+      </c>
+      <c r="G645" t="n">
+        <v>3278.990618369999</v>
+      </c>
+      <c r="H645" t="n">
+        <v>0</v>
+      </c>
+      <c r="I645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L645" t="n">
+        <v>1</v>
+      </c>
+      <c r="M645" t="inlineStr"/>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="n">
+        <v>644</v>
+      </c>
+      <c r="B646" t="n">
+        <v>332100</v>
+      </c>
+      <c r="C646" t="n">
+        <v>332600</v>
+      </c>
+      <c r="D646" t="n">
+        <v>333100</v>
+      </c>
+      <c r="E646" t="n">
+        <v>331800</v>
+      </c>
+      <c r="F646" t="n">
+        <v>466.80780147</v>
+      </c>
+      <c r="G646" t="n">
+        <v>3745.798419839999</v>
+      </c>
+      <c r="H646" t="n">
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L646" t="n">
+        <v>1</v>
+      </c>
+      <c r="M646" t="inlineStr"/>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="n">
+        <v>645</v>
+      </c>
+      <c r="B647" t="n">
+        <v>333000</v>
+      </c>
+      <c r="C647" t="n">
+        <v>333800</v>
+      </c>
+      <c r="D647" t="n">
+        <v>335300</v>
+      </c>
+      <c r="E647" t="n">
+        <v>333000</v>
+      </c>
+      <c r="F647" t="n">
+        <v>399.25393352</v>
+      </c>
+      <c r="G647" t="n">
+        <v>4145.052353359999</v>
+      </c>
+      <c r="H647" t="n">
+        <v>0</v>
+      </c>
+      <c r="I647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L647" t="n">
+        <v>1</v>
+      </c>
+      <c r="M647" t="inlineStr"/>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
+        <v>646</v>
+      </c>
+      <c r="B648" t="n">
+        <v>334200</v>
+      </c>
+      <c r="C648" t="n">
+        <v>335000</v>
+      </c>
+      <c r="D648" t="n">
+        <v>335000</v>
+      </c>
+      <c r="E648" t="n">
+        <v>333800</v>
+      </c>
+      <c r="F648" t="n">
+        <v>104.2448</v>
+      </c>
+      <c r="G648" t="n">
+        <v>4249.297153359999</v>
+      </c>
+      <c r="H648" t="n">
+        <v>0</v>
+      </c>
+      <c r="I648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L648" t="n">
+        <v>1</v>
+      </c>
+      <c r="M648" t="inlineStr"/>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
+        <v>647</v>
+      </c>
+      <c r="B649" t="n">
+        <v>335000</v>
+      </c>
+      <c r="C649" t="n">
+        <v>335200</v>
+      </c>
+      <c r="D649" t="n">
+        <v>338000</v>
+      </c>
+      <c r="E649" t="n">
+        <v>335000</v>
+      </c>
+      <c r="F649" t="n">
+        <v>519.61206916</v>
+      </c>
+      <c r="G649" t="n">
+        <v>4768.909222519999</v>
+      </c>
+      <c r="H649" t="n">
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L649" t="n">
+        <v>1</v>
+      </c>
+      <c r="M649" t="inlineStr"/>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="n">
+        <v>648</v>
+      </c>
+      <c r="B650" t="n">
+        <v>335100</v>
+      </c>
+      <c r="C650" t="n">
+        <v>336800</v>
+      </c>
+      <c r="D650" t="n">
+        <v>337400</v>
+      </c>
+      <c r="E650" t="n">
+        <v>335000</v>
+      </c>
+      <c r="F650" t="n">
+        <v>470.17824391</v>
+      </c>
+      <c r="G650" t="n">
+        <v>5239.087466429999</v>
+      </c>
+      <c r="H650" t="n">
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L650" t="n">
+        <v>1</v>
+      </c>
+      <c r="M650" t="inlineStr"/>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>649</v>
+      </c>
+      <c r="B651" t="n">
+        <v>336700</v>
+      </c>
+      <c r="C651" t="n">
+        <v>339800</v>
+      </c>
+      <c r="D651" t="n">
+        <v>339800</v>
+      </c>
+      <c r="E651" t="n">
+        <v>336500</v>
+      </c>
+      <c r="F651" t="n">
+        <v>605.52122932</v>
+      </c>
+      <c r="G651" t="n">
+        <v>5844.608695749999</v>
+      </c>
+      <c r="H651" t="n">
+        <v>0</v>
+      </c>
+      <c r="I651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L651" t="n">
+        <v>1</v>
+      </c>
+      <c r="M651" t="inlineStr"/>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>650</v>
+      </c>
+      <c r="B652" t="n">
+        <v>339800</v>
+      </c>
+      <c r="C652" t="n">
+        <v>340400</v>
+      </c>
+      <c r="D652" t="n">
+        <v>340900</v>
+      </c>
+      <c r="E652" t="n">
+        <v>339400</v>
+      </c>
+      <c r="F652" t="n">
+        <v>590.85691045</v>
+      </c>
+      <c r="G652" t="n">
+        <v>6435.465606199999</v>
+      </c>
+      <c r="H652" t="n">
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L652" t="n">
+        <v>1</v>
+      </c>
+      <c r="M652" t="inlineStr"/>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>651</v>
+      </c>
+      <c r="B653" t="n">
+        <v>340700</v>
+      </c>
+      <c r="C653" t="n">
+        <v>338700</v>
+      </c>
+      <c r="D653" t="n">
+        <v>341600</v>
+      </c>
+      <c r="E653" t="n">
+        <v>338500</v>
+      </c>
+      <c r="F653" t="n">
+        <v>578.0619</v>
+      </c>
+      <c r="G653" t="n">
+        <v>5857.4037062</v>
+      </c>
+      <c r="H653" t="n">
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L653" t="n">
+        <v>1</v>
+      </c>
+      <c r="M653" t="inlineStr"/>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>652</v>
+      </c>
+      <c r="B654" t="n">
+        <v>338700</v>
+      </c>
+      <c r="C654" t="n">
+        <v>339300</v>
+      </c>
+      <c r="D654" t="n">
+        <v>339600</v>
+      </c>
+      <c r="E654" t="n">
+        <v>337400</v>
+      </c>
+      <c r="F654" t="n">
+        <v>601.7628983</v>
+      </c>
+      <c r="G654" t="n">
+        <v>6459.1666045</v>
+      </c>
+      <c r="H654" t="n">
+        <v>2</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>308000</v>
+      </c>
+      <c r="K654" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L591" t="n">
-        <v>1.069602659747</v>
-      </c>
-      <c r="M591" t="n">
+      <c r="L654" t="n">
+        <v>1.096623376623377</v>
+      </c>
+      <c r="M654" t="n">
         <v>1.038599934576382</v>
       </c>
-    </row>
-    <row r="592">
-      <c r="A592" s="1" t="n">
-        <v>590</v>
-      </c>
-      <c r="B592" t="n">
-        <v>331500</v>
-      </c>
-      <c r="C592" t="n">
-        <v>327700</v>
-      </c>
-      <c r="D592" t="n">
-        <v>332900</v>
-      </c>
-      <c r="E592" t="n">
-        <v>327100</v>
-      </c>
-      <c r="F592" t="n">
-        <v>774.72852663</v>
-      </c>
-      <c r="G592" t="n">
-        <v>2749.92296575</v>
-      </c>
-      <c r="H592" t="n">
-        <v>2</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
-      <c r="L592" t="n">
-        <v>1</v>
-      </c>
-      <c r="M592" t="inlineStr"/>
-    </row>
-    <row r="593">
-      <c r="A593" s="1" t="n">
-        <v>591</v>
-      </c>
-      <c r="B593" t="n">
-        <v>327600</v>
-      </c>
-      <c r="C593" t="n">
-        <v>327600</v>
-      </c>
-      <c r="D593" t="n">
-        <v>328500</v>
-      </c>
-      <c r="E593" t="n">
-        <v>327100</v>
-      </c>
-      <c r="F593" t="n">
-        <v>278.6296</v>
-      </c>
-      <c r="G593" t="n">
-        <v>2471.29336575</v>
-      </c>
-      <c r="H593" t="n">
-        <v>2</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
-      <c r="L593" t="n">
-        <v>1</v>
-      </c>
-      <c r="M593" t="inlineStr"/>
-    </row>
-    <row r="594">
-      <c r="A594" s="1" t="n">
-        <v>592</v>
-      </c>
-      <c r="B594" t="n">
-        <v>327900</v>
-      </c>
-      <c r="C594" t="n">
-        <v>327600</v>
-      </c>
-      <c r="D594" t="n">
-        <v>328200</v>
-      </c>
-      <c r="E594" t="n">
-        <v>325800</v>
-      </c>
-      <c r="F594" t="n">
-        <v>199.2155</v>
-      </c>
-      <c r="G594" t="n">
-        <v>2471.29336575</v>
-      </c>
-      <c r="H594" t="n">
-        <v>2</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
-      <c r="L594" t="n">
-        <v>1</v>
-      </c>
-      <c r="M594" t="inlineStr"/>
-    </row>
-    <row r="595">
-      <c r="A595" s="1" t="n">
-        <v>593</v>
-      </c>
-      <c r="B595" t="n">
-        <v>328500</v>
-      </c>
-      <c r="C595" t="n">
-        <v>327500</v>
-      </c>
-      <c r="D595" t="n">
-        <v>329600</v>
-      </c>
-      <c r="E595" t="n">
-        <v>327500</v>
-      </c>
-      <c r="F595" t="n">
-        <v>225.80117556</v>
-      </c>
-      <c r="G595" t="n">
-        <v>2245.49219019</v>
-      </c>
-      <c r="H595" t="n">
-        <v>2</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
-      <c r="L595" t="n">
-        <v>1</v>
-      </c>
-      <c r="M595" t="inlineStr"/>
-    </row>
-    <row r="596">
-      <c r="A596" s="1" t="n">
-        <v>594</v>
-      </c>
-      <c r="B596" t="n">
-        <v>327800</v>
-      </c>
-      <c r="C596" t="n">
-        <v>327900</v>
-      </c>
-      <c r="D596" t="n">
-        <v>328700</v>
-      </c>
-      <c r="E596" t="n">
-        <v>327300</v>
-      </c>
-      <c r="F596" t="n">
-        <v>108.22029552</v>
-      </c>
-      <c r="G596" t="n">
-        <v>2353.71248571</v>
-      </c>
-      <c r="H596" t="n">
-        <v>2</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
-      <c r="L596" t="n">
-        <v>1</v>
-      </c>
-      <c r="M596" t="inlineStr"/>
-    </row>
-    <row r="597">
-      <c r="A597" s="1" t="n">
-        <v>595</v>
-      </c>
-      <c r="B597" t="n">
-        <v>327900</v>
-      </c>
-      <c r="C597" t="n">
-        <v>328300</v>
-      </c>
-      <c r="D597" t="n">
-        <v>328400</v>
-      </c>
-      <c r="E597" t="n">
-        <v>327600</v>
-      </c>
-      <c r="F597" t="n">
-        <v>49.95080036</v>
-      </c>
-      <c r="G597" t="n">
-        <v>2403.66328607</v>
-      </c>
-      <c r="H597" t="n">
-        <v>2</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
-      <c r="L597" t="n">
-        <v>1</v>
-      </c>
-      <c r="M597" t="inlineStr"/>
-    </row>
-    <row r="598">
-      <c r="A598" s="1" t="n">
-        <v>596</v>
-      </c>
-      <c r="B598" t="n">
-        <v>328400</v>
-      </c>
-      <c r="C598" t="n">
-        <v>328800</v>
-      </c>
-      <c r="D598" t="n">
-        <v>330700</v>
-      </c>
-      <c r="E598" t="n">
-        <v>328100</v>
-      </c>
-      <c r="F598" t="n">
-        <v>464.85376336</v>
-      </c>
-      <c r="G598" t="n">
-        <v>2868.51704943</v>
-      </c>
-      <c r="H598" t="n">
-        <v>2</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
-      <c r="L598" t="n">
-        <v>1</v>
-      </c>
-      <c r="M598" t="inlineStr"/>
-    </row>
-    <row r="599">
-      <c r="A599" s="1" t="n">
-        <v>597</v>
-      </c>
-      <c r="B599" t="n">
-        <v>328700</v>
-      </c>
-      <c r="C599" t="n">
-        <v>326700</v>
-      </c>
-      <c r="D599" t="n">
-        <v>328900</v>
-      </c>
-      <c r="E599" t="n">
-        <v>326700</v>
-      </c>
-      <c r="F599" t="n">
-        <v>158.95982366</v>
-      </c>
-      <c r="G599" t="n">
-        <v>2709.55722577</v>
-      </c>
-      <c r="H599" t="n">
-        <v>2</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
-      <c r="L599" t="n">
-        <v>1</v>
-      </c>
-      <c r="M599" t="inlineStr"/>
-    </row>
-    <row r="600">
-      <c r="A600" s="1" t="n">
-        <v>598</v>
-      </c>
-      <c r="B600" t="n">
-        <v>326700</v>
-      </c>
-      <c r="C600" t="n">
-        <v>329000</v>
-      </c>
-      <c r="D600" t="n">
-        <v>329000</v>
-      </c>
-      <c r="E600" t="n">
-        <v>326000</v>
-      </c>
-      <c r="F600" t="n">
-        <v>172.34961405</v>
-      </c>
-      <c r="G600" t="n">
-        <v>2881.90683982</v>
-      </c>
-      <c r="H600" t="n">
-        <v>2</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
-      <c r="L600" t="n">
-        <v>1</v>
-      </c>
-      <c r="M600" t="inlineStr"/>
-    </row>
-    <row r="601">
-      <c r="A601" s="1" t="n">
-        <v>599</v>
-      </c>
-      <c r="B601" t="n">
-        <v>329600</v>
-      </c>
-      <c r="C601" t="n">
-        <v>327500</v>
-      </c>
-      <c r="D601" t="n">
-        <v>329900</v>
-      </c>
-      <c r="E601" t="n">
-        <v>327500</v>
-      </c>
-      <c r="F601" t="n">
-        <v>373.80625714</v>
-      </c>
-      <c r="G601" t="n">
-        <v>2508.10058268</v>
-      </c>
-      <c r="H601" t="n">
-        <v>2</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
-      <c r="L601" t="n">
-        <v>1</v>
-      </c>
-      <c r="M601" t="inlineStr"/>
-    </row>
-    <row r="602">
-      <c r="A602" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="B602" t="n">
-        <v>328000</v>
-      </c>
-      <c r="C602" t="n">
-        <v>329100</v>
-      </c>
-      <c r="D602" t="n">
-        <v>330000</v>
-      </c>
-      <c r="E602" t="n">
-        <v>327500</v>
-      </c>
-      <c r="F602" t="n">
-        <v>314.9711548</v>
-      </c>
-      <c r="G602" t="n">
-        <v>2823.07173748</v>
-      </c>
-      <c r="H602" t="n">
-        <v>2</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
-      <c r="L602" t="n">
-        <v>1</v>
-      </c>
-      <c r="M602" t="inlineStr"/>
-    </row>
-    <row r="603">
-      <c r="A603" s="1" t="n">
-        <v>601</v>
-      </c>
-      <c r="B603" t="n">
-        <v>328600</v>
-      </c>
-      <c r="C603" t="n">
-        <v>328500</v>
-      </c>
-      <c r="D603" t="n">
-        <v>328900</v>
-      </c>
-      <c r="E603" t="n">
-        <v>328000</v>
-      </c>
-      <c r="F603" t="n">
-        <v>31.19534222</v>
-      </c>
-      <c r="G603" t="n">
-        <v>2791.87639526</v>
-      </c>
-      <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
-      <c r="L603" t="n">
-        <v>1</v>
-      </c>
-      <c r="M603" t="inlineStr"/>
-    </row>
-    <row r="604">
-      <c r="A604" s="1" t="n">
-        <v>602</v>
-      </c>
-      <c r="B604" t="n">
-        <v>329000</v>
-      </c>
-      <c r="C604" t="n">
-        <v>329900</v>
-      </c>
-      <c r="D604" t="n">
-        <v>330500</v>
-      </c>
-      <c r="E604" t="n">
-        <v>328500</v>
-      </c>
-      <c r="F604" t="n">
-        <v>363.9113</v>
-      </c>
-      <c r="G604" t="n">
-        <v>3155.78769526</v>
-      </c>
-      <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
-      <c r="L604" t="n">
-        <v>1</v>
-      </c>
-      <c r="M604" t="inlineStr"/>
-    </row>
-    <row r="605">
-      <c r="A605" s="1" t="n">
-        <v>603</v>
-      </c>
-      <c r="B605" t="n">
-        <v>329900</v>
-      </c>
-      <c r="C605" t="n">
-        <v>330000</v>
-      </c>
-      <c r="D605" t="n">
-        <v>330100</v>
-      </c>
-      <c r="E605" t="n">
-        <v>329000</v>
-      </c>
-      <c r="F605" t="n">
-        <v>269.5463</v>
-      </c>
-      <c r="G605" t="n">
-        <v>3425.33399526</v>
-      </c>
-      <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
-      <c r="L605" t="n">
-        <v>1</v>
-      </c>
-      <c r="M605" t="inlineStr"/>
-    </row>
-    <row r="606">
-      <c r="A606" s="1" t="n">
-        <v>604</v>
-      </c>
-      <c r="B606" t="n">
-        <v>330000</v>
-      </c>
-      <c r="C606" t="n">
-        <v>330700</v>
-      </c>
-      <c r="D606" t="n">
-        <v>332000</v>
-      </c>
-      <c r="E606" t="n">
-        <v>330000</v>
-      </c>
-      <c r="F606" t="n">
-        <v>460.60678992</v>
-      </c>
-      <c r="G606" t="n">
-        <v>3885.94078518</v>
-      </c>
-      <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
-      <c r="L606" t="n">
-        <v>1</v>
-      </c>
-      <c r="M606" t="inlineStr"/>
-    </row>
-    <row r="607">
-      <c r="A607" s="1" t="n">
-        <v>605</v>
-      </c>
-      <c r="B607" t="n">
-        <v>330700</v>
-      </c>
-      <c r="C607" t="n">
-        <v>329600</v>
-      </c>
-      <c r="D607" t="n">
-        <v>330700</v>
-      </c>
-      <c r="E607" t="n">
-        <v>328800</v>
-      </c>
-      <c r="F607" t="n">
-        <v>364.13225204</v>
-      </c>
-      <c r="G607" t="n">
-        <v>3521.80853314</v>
-      </c>
-      <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
-      <c r="L607" t="n">
-        <v>1</v>
-      </c>
-      <c r="M607" t="inlineStr"/>
-    </row>
-    <row r="608">
-      <c r="A608" s="1" t="n">
-        <v>606</v>
-      </c>
-      <c r="B608" t="n">
-        <v>329600</v>
-      </c>
-      <c r="C608" t="n">
-        <v>330700</v>
-      </c>
-      <c r="D608" t="n">
-        <v>331100</v>
-      </c>
-      <c r="E608" t="n">
-        <v>329600</v>
-      </c>
-      <c r="F608" t="n">
-        <v>100.4341</v>
-      </c>
-      <c r="G608" t="n">
-        <v>3622.24263314</v>
-      </c>
-      <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
-      <c r="L608" t="n">
-        <v>1</v>
-      </c>
-      <c r="M608" t="inlineStr"/>
-    </row>
-    <row r="609">
-      <c r="A609" s="1" t="n">
-        <v>607</v>
-      </c>
-      <c r="B609" t="n">
-        <v>330700</v>
-      </c>
-      <c r="C609" t="n">
-        <v>331100</v>
-      </c>
-      <c r="D609" t="n">
-        <v>332000</v>
-      </c>
-      <c r="E609" t="n">
-        <v>330500</v>
-      </c>
-      <c r="F609" t="n">
-        <v>319.5068</v>
-      </c>
-      <c r="G609" t="n">
-        <v>3941.74943314</v>
-      </c>
-      <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
-      <c r="L609" t="n">
-        <v>1</v>
-      </c>
-      <c r="M609" t="inlineStr"/>
-    </row>
-    <row r="610">
-      <c r="A610" s="1" t="n">
-        <v>608</v>
-      </c>
-      <c r="B610" t="n">
-        <v>332000</v>
-      </c>
-      <c r="C610" t="n">
-        <v>331500</v>
-      </c>
-      <c r="D610" t="n">
-        <v>332500</v>
-      </c>
-      <c r="E610" t="n">
-        <v>331100</v>
-      </c>
-      <c r="F610" t="n">
-        <v>361.5545</v>
-      </c>
-      <c r="G610" t="n">
-        <v>4303.30393314</v>
-      </c>
-      <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
-      <c r="L610" t="n">
-        <v>1</v>
-      </c>
-      <c r="M610" t="inlineStr"/>
-    </row>
-    <row r="611">
-      <c r="A611" s="1" t="n">
-        <v>609</v>
-      </c>
-      <c r="B611" t="n">
-        <v>331300</v>
-      </c>
-      <c r="C611" t="n">
-        <v>330000</v>
-      </c>
-      <c r="D611" t="n">
-        <v>331600</v>
-      </c>
-      <c r="E611" t="n">
-        <v>329000</v>
-      </c>
-      <c r="F611" t="n">
-        <v>322.2447</v>
-      </c>
-      <c r="G611" t="n">
-        <v>3981.059233139999</v>
-      </c>
-      <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
-      <c r="L611" t="n">
-        <v>1</v>
-      </c>
-      <c r="M611" t="inlineStr"/>
-    </row>
-    <row r="612">
-      <c r="A612" s="1" t="n">
-        <v>610</v>
-      </c>
-      <c r="B612" t="n">
-        <v>330100</v>
-      </c>
-      <c r="C612" t="n">
-        <v>330300</v>
-      </c>
-      <c r="D612" t="n">
-        <v>331100</v>
-      </c>
-      <c r="E612" t="n">
-        <v>329400</v>
-      </c>
-      <c r="F612" t="n">
-        <v>213.67047663</v>
-      </c>
-      <c r="G612" t="n">
-        <v>4194.729709769999</v>
-      </c>
-      <c r="H612" t="n">
-        <v>2</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
-      <c r="L612" t="n">
-        <v>1</v>
-      </c>
-      <c r="M612" t="inlineStr"/>
-    </row>
-    <row r="613">
-      <c r="A613" s="1" t="n">
-        <v>611</v>
-      </c>
-      <c r="B613" t="n">
-        <v>330300</v>
-      </c>
-      <c r="C613" t="n">
-        <v>329300</v>
-      </c>
-      <c r="D613" t="n">
-        <v>330300</v>
-      </c>
-      <c r="E613" t="n">
-        <v>328300</v>
-      </c>
-      <c r="F613" t="n">
-        <v>102.1972</v>
-      </c>
-      <c r="G613" t="n">
-        <v>4092.532509769999</v>
-      </c>
-      <c r="H613" t="n">
-        <v>2</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
-      <c r="L613" t="n">
-        <v>1</v>
-      </c>
-      <c r="M613" t="inlineStr"/>
-    </row>
-    <row r="614">
-      <c r="A614" s="1" t="n">
-        <v>612</v>
-      </c>
-      <c r="B614" t="n">
-        <v>329700</v>
-      </c>
-      <c r="C614" t="n">
-        <v>328900</v>
-      </c>
-      <c r="D614" t="n">
-        <v>331300</v>
-      </c>
-      <c r="E614" t="n">
-        <v>328900</v>
-      </c>
-      <c r="F614" t="n">
-        <v>333.33685454</v>
-      </c>
-      <c r="G614" t="n">
-        <v>3759.195655229999</v>
-      </c>
-      <c r="H614" t="n">
-        <v>2</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
-      <c r="L614" t="n">
-        <v>1</v>
-      </c>
-      <c r="M614" t="inlineStr"/>
-    </row>
-    <row r="615">
-      <c r="A615" s="1" t="n">
-        <v>613</v>
-      </c>
-      <c r="B615" t="n">
-        <v>328400</v>
-      </c>
-      <c r="C615" t="n">
-        <v>329400</v>
-      </c>
-      <c r="D615" t="n">
-        <v>330800</v>
-      </c>
-      <c r="E615" t="n">
-        <v>328400</v>
-      </c>
-      <c r="F615" t="n">
-        <v>198.24299946</v>
-      </c>
-      <c r="G615" t="n">
-        <v>3957.43865469</v>
-      </c>
-      <c r="H615" t="n">
-        <v>2</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
-      <c r="L615" t="n">
-        <v>1</v>
-      </c>
-      <c r="M615" t="inlineStr"/>
-    </row>
-    <row r="616">
-      <c r="A616" s="1" t="n">
-        <v>614</v>
-      </c>
-      <c r="B616" t="n">
-        <v>329400</v>
-      </c>
-      <c r="C616" t="n">
-        <v>330000</v>
-      </c>
-      <c r="D616" t="n">
-        <v>330500</v>
-      </c>
-      <c r="E616" t="n">
-        <v>329000</v>
-      </c>
-      <c r="F616" t="n">
-        <v>66.5574</v>
-      </c>
-      <c r="G616" t="n">
-        <v>4023.99605469</v>
-      </c>
-      <c r="H616" t="n">
-        <v>2</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
-      <c r="L616" t="n">
-        <v>1</v>
-      </c>
-      <c r="M616" t="inlineStr"/>
-    </row>
-    <row r="617">
-      <c r="A617" s="1" t="n">
-        <v>615</v>
-      </c>
-      <c r="B617" t="n">
-        <v>330000</v>
-      </c>
-      <c r="C617" t="n">
-        <v>330000</v>
-      </c>
-      <c r="D617" t="n">
-        <v>330700</v>
-      </c>
-      <c r="E617" t="n">
-        <v>330000</v>
-      </c>
-      <c r="F617" t="n">
-        <v>172.33</v>
-      </c>
-      <c r="G617" t="n">
-        <v>4023.99605469</v>
-      </c>
-      <c r="H617" t="n">
-        <v>2</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
-      <c r="L617" t="n">
-        <v>1</v>
-      </c>
-      <c r="M617" t="inlineStr"/>
-    </row>
-    <row r="618">
-      <c r="A618" s="1" t="n">
-        <v>616</v>
-      </c>
-      <c r="B618" t="n">
-        <v>330000</v>
-      </c>
-      <c r="C618" t="n">
-        <v>329700</v>
-      </c>
-      <c r="D618" t="n">
-        <v>330200</v>
-      </c>
-      <c r="E618" t="n">
-        <v>329000</v>
-      </c>
-      <c r="F618" t="n">
-        <v>95.0222</v>
-      </c>
-      <c r="G618" t="n">
-        <v>3928.97385469</v>
-      </c>
-      <c r="H618" t="n">
-        <v>2</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
-      <c r="L618" t="n">
-        <v>1</v>
-      </c>
-      <c r="M618" t="inlineStr"/>
-    </row>
-    <row r="619">
-      <c r="A619" s="1" t="n">
-        <v>617</v>
-      </c>
-      <c r="B619" t="n">
-        <v>329700</v>
-      </c>
-      <c r="C619" t="n">
-        <v>329100</v>
-      </c>
-      <c r="D619" t="n">
-        <v>329700</v>
-      </c>
-      <c r="E619" t="n">
-        <v>329100</v>
-      </c>
-      <c r="F619" t="n">
-        <v>26.3865</v>
-      </c>
-      <c r="G619" t="n">
-        <v>3902.58735469</v>
-      </c>
-      <c r="H619" t="n">
-        <v>2</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
-      <c r="L619" t="n">
-        <v>1</v>
-      </c>
-      <c r="M619" t="inlineStr"/>
-    </row>
-    <row r="620">
-      <c r="A620" s="1" t="n">
-        <v>618</v>
-      </c>
-      <c r="B620" t="n">
-        <v>329000</v>
-      </c>
-      <c r="C620" t="n">
-        <v>328700</v>
-      </c>
-      <c r="D620" t="n">
-        <v>329700</v>
-      </c>
-      <c r="E620" t="n">
-        <v>328700</v>
-      </c>
-      <c r="F620" t="n">
-        <v>76.831</v>
-      </c>
-      <c r="G620" t="n">
-        <v>3825.75635469</v>
-      </c>
-      <c r="H620" t="n">
-        <v>2</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
-      <c r="L620" t="n">
-        <v>1</v>
-      </c>
-      <c r="M620" t="inlineStr"/>
-    </row>
-    <row r="621">
-      <c r="A621" s="1" t="n">
-        <v>619</v>
-      </c>
-      <c r="B621" t="n">
-        <v>328800</v>
-      </c>
-      <c r="C621" t="n">
-        <v>328800</v>
-      </c>
-      <c r="D621" t="n">
-        <v>328900</v>
-      </c>
-      <c r="E621" t="n">
-        <v>327600</v>
-      </c>
-      <c r="F621" t="n">
-        <v>184.9252</v>
-      </c>
-      <c r="G621" t="n">
-        <v>4010.68155469</v>
-      </c>
-      <c r="H621" t="n">
-        <v>2</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
-      <c r="L621" t="n">
-        <v>1</v>
-      </c>
-      <c r="M621" t="inlineStr"/>
-    </row>
-    <row r="622">
-      <c r="A622" s="1" t="n">
-        <v>620</v>
-      </c>
-      <c r="B622" t="n">
-        <v>328800</v>
-      </c>
-      <c r="C622" t="n">
-        <v>328000</v>
-      </c>
-      <c r="D622" t="n">
-        <v>328800</v>
-      </c>
-      <c r="E622" t="n">
-        <v>327700</v>
-      </c>
-      <c r="F622" t="n">
-        <v>46.09090072</v>
-      </c>
-      <c r="G622" t="n">
-        <v>3964.59065397</v>
-      </c>
-      <c r="H622" t="n">
-        <v>2</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
-      <c r="L622" t="n">
-        <v>1</v>
-      </c>
-      <c r="M622" t="inlineStr"/>
-    </row>
-    <row r="623">
-      <c r="A623" s="1" t="n">
-        <v>621</v>
-      </c>
-      <c r="B623" t="n">
-        <v>328000</v>
-      </c>
-      <c r="C623" t="n">
-        <v>327800</v>
-      </c>
-      <c r="D623" t="n">
-        <v>328800</v>
-      </c>
-      <c r="E623" t="n">
-        <v>326800</v>
-      </c>
-      <c r="F623" t="n">
-        <v>188.8601</v>
-      </c>
-      <c r="G623" t="n">
-        <v>3775.73055397</v>
-      </c>
-      <c r="H623" t="n">
-        <v>2</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
-      <c r="L623" t="n">
-        <v>1</v>
-      </c>
-      <c r="M623" t="inlineStr"/>
-    </row>
-    <row r="624">
-      <c r="A624" s="1" t="n">
-        <v>622</v>
-      </c>
-      <c r="B624" t="n">
-        <v>327800</v>
-      </c>
-      <c r="C624" t="n">
-        <v>328500</v>
-      </c>
-      <c r="D624" t="n">
-        <v>328900</v>
-      </c>
-      <c r="E624" t="n">
-        <v>327800</v>
-      </c>
-      <c r="F624" t="n">
-        <v>94.16729671</v>
-      </c>
-      <c r="G624" t="n">
-        <v>3869.89785068</v>
-      </c>
-      <c r="H624" t="n">
-        <v>2</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
-      <c r="L624" t="n">
-        <v>1</v>
-      </c>
-      <c r="M624" t="inlineStr"/>
-    </row>
-    <row r="625">
-      <c r="A625" s="1" t="n">
-        <v>623</v>
-      </c>
-      <c r="B625" t="n">
-        <v>328100</v>
-      </c>
-      <c r="C625" t="n">
-        <v>328600</v>
-      </c>
-      <c r="D625" t="n">
-        <v>328600</v>
-      </c>
-      <c r="E625" t="n">
-        <v>328000</v>
-      </c>
-      <c r="F625" t="n">
-        <v>42.0619</v>
-      </c>
-      <c r="G625" t="n">
-        <v>3911.95975068</v>
-      </c>
-      <c r="H625" t="n">
-        <v>2</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
-      <c r="L625" t="n">
-        <v>1</v>
-      </c>
-      <c r="M625" t="inlineStr"/>
-    </row>
-    <row r="626">
-      <c r="A626" s="1" t="n">
-        <v>624</v>
-      </c>
-      <c r="B626" t="n">
-        <v>328200</v>
-      </c>
-      <c r="C626" t="n">
-        <v>328000</v>
-      </c>
-      <c r="D626" t="n">
-        <v>328700</v>
-      </c>
-      <c r="E626" t="n">
-        <v>328000</v>
-      </c>
-      <c r="F626" t="n">
-        <v>35.5188</v>
-      </c>
-      <c r="G626" t="n">
-        <v>3876.44095068</v>
-      </c>
-      <c r="H626" t="n">
-        <v>2</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
-      <c r="L626" t="n">
-        <v>1</v>
-      </c>
-      <c r="M626" t="inlineStr"/>
-    </row>
-    <row r="627">
-      <c r="A627" s="1" t="n">
-        <v>625</v>
-      </c>
-      <c r="B627" t="n">
-        <v>328200</v>
-      </c>
-      <c r="C627" t="n">
-        <v>327600</v>
-      </c>
-      <c r="D627" t="n">
-        <v>328200</v>
-      </c>
-      <c r="E627" t="n">
-        <v>327200</v>
-      </c>
-      <c r="F627" t="n">
-        <v>66.71850865</v>
-      </c>
-      <c r="G627" t="n">
-        <v>3809.72244203</v>
-      </c>
-      <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
-      <c r="L627" t="n">
-        <v>1</v>
-      </c>
-      <c r="M627" t="inlineStr"/>
-    </row>
-    <row r="628">
-      <c r="A628" s="1" t="n">
-        <v>626</v>
-      </c>
-      <c r="B628" t="n">
-        <v>328200</v>
-      </c>
-      <c r="C628" t="n">
-        <v>327900</v>
-      </c>
-      <c r="D628" t="n">
-        <v>329000</v>
-      </c>
-      <c r="E628" t="n">
-        <v>327900</v>
-      </c>
-      <c r="F628" t="n">
-        <v>85.3272465</v>
-      </c>
-      <c r="G628" t="n">
-        <v>3895.04968853</v>
-      </c>
-      <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
-      <c r="L628" t="n">
-        <v>1</v>
-      </c>
-      <c r="M628" t="inlineStr"/>
-    </row>
-    <row r="629">
-      <c r="A629" s="1" t="n">
-        <v>627</v>
-      </c>
-      <c r="B629" t="n">
-        <v>328000</v>
-      </c>
-      <c r="C629" t="n">
-        <v>328600</v>
-      </c>
-      <c r="D629" t="n">
-        <v>329500</v>
-      </c>
-      <c r="E629" t="n">
-        <v>327900</v>
-      </c>
-      <c r="F629" t="n">
-        <v>91.14360000000001</v>
-      </c>
-      <c r="G629" t="n">
-        <v>3986.19328853</v>
-      </c>
-      <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
-      <c r="L629" t="n">
-        <v>1</v>
-      </c>
-      <c r="M629" t="inlineStr"/>
-    </row>
-    <row r="630">
-      <c r="A630" s="1" t="n">
-        <v>628</v>
-      </c>
-      <c r="B630" t="n">
-        <v>328600</v>
-      </c>
-      <c r="C630" t="n">
-        <v>329100</v>
-      </c>
-      <c r="D630" t="n">
-        <v>329500</v>
-      </c>
-      <c r="E630" t="n">
-        <v>328600</v>
-      </c>
-      <c r="F630" t="n">
-        <v>78.1246</v>
-      </c>
-      <c r="G630" t="n">
-        <v>4064.31788853</v>
-      </c>
-      <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
-      <c r="L630" t="n">
-        <v>1</v>
-      </c>
-      <c r="M630" t="inlineStr"/>
-    </row>
-    <row r="631">
-      <c r="A631" s="1" t="n">
-        <v>629</v>
-      </c>
-      <c r="B631" t="n">
-        <v>328800</v>
-      </c>
-      <c r="C631" t="n">
-        <v>328900</v>
-      </c>
-      <c r="D631" t="n">
-        <v>329200</v>
-      </c>
-      <c r="E631" t="n">
-        <v>328800</v>
-      </c>
-      <c r="F631" t="n">
-        <v>35.5776</v>
-      </c>
-      <c r="G631" t="n">
-        <v>4028.74028853</v>
-      </c>
-      <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
-      <c r="L631" t="n">
-        <v>1</v>
-      </c>
-      <c r="M631" t="inlineStr"/>
-    </row>
-    <row r="632">
-      <c r="A632" s="1" t="n">
-        <v>630</v>
-      </c>
-      <c r="B632" t="n">
-        <v>328900</v>
-      </c>
-      <c r="C632" t="n">
-        <v>329600</v>
-      </c>
-      <c r="D632" t="n">
-        <v>329700</v>
-      </c>
-      <c r="E632" t="n">
-        <v>328800</v>
-      </c>
-      <c r="F632" t="n">
-        <v>58.2947</v>
-      </c>
-      <c r="G632" t="n">
-        <v>4087.03498853</v>
-      </c>
-      <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
-      <c r="L632" t="n">
-        <v>1</v>
-      </c>
-      <c r="M632" t="inlineStr"/>
-    </row>
-    <row r="633">
-      <c r="A633" s="1" t="n">
-        <v>631</v>
-      </c>
-      <c r="B633" t="n">
-        <v>329800</v>
-      </c>
-      <c r="C633" t="n">
-        <v>329300</v>
-      </c>
-      <c r="D633" t="n">
-        <v>330000</v>
-      </c>
-      <c r="E633" t="n">
-        <v>329300</v>
-      </c>
-      <c r="F633" t="n">
-        <v>28.7106</v>
-      </c>
-      <c r="G633" t="n">
-        <v>4058.32438853</v>
-      </c>
-      <c r="H633" t="n">
-        <v>2</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
-      <c r="L633" t="n">
-        <v>1</v>
-      </c>
-      <c r="M633" t="inlineStr"/>
-    </row>
-    <row r="634">
-      <c r="A634" s="1" t="n">
-        <v>632</v>
-      </c>
-      <c r="B634" t="n">
-        <v>329500</v>
-      </c>
-      <c r="C634" t="n">
-        <v>330800</v>
-      </c>
-      <c r="D634" t="n">
-        <v>331200</v>
-      </c>
-      <c r="E634" t="n">
-        <v>329500</v>
-      </c>
-      <c r="F634" t="n">
-        <v>181.4326</v>
-      </c>
-      <c r="G634" t="n">
-        <v>4239.75698853</v>
-      </c>
-      <c r="H634" t="n">
-        <v>2</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
-      <c r="L634" t="n">
-        <v>1</v>
-      </c>
-      <c r="M634" t="inlineStr"/>
-    </row>
-    <row r="635">
-      <c r="A635" s="1" t="n">
-        <v>633</v>
-      </c>
-      <c r="B635" t="n">
-        <v>331000</v>
-      </c>
-      <c r="C635" t="n">
-        <v>330200</v>
-      </c>
-      <c r="D635" t="n">
-        <v>332000</v>
-      </c>
-      <c r="E635" t="n">
-        <v>330200</v>
-      </c>
-      <c r="F635" t="n">
-        <v>538.4945</v>
-      </c>
-      <c r="G635" t="n">
-        <v>3701.26248853</v>
-      </c>
-      <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
-      <c r="L635" t="n">
-        <v>1</v>
-      </c>
-      <c r="M635" t="inlineStr"/>
-    </row>
-    <row r="636">
-      <c r="A636" s="1" t="n">
-        <v>634</v>
-      </c>
-      <c r="B636" t="n">
-        <v>330200</v>
-      </c>
-      <c r="C636" t="n">
-        <v>331100</v>
-      </c>
-      <c r="D636" t="n">
-        <v>331700</v>
-      </c>
-      <c r="E636" t="n">
-        <v>330200</v>
-      </c>
-      <c r="F636" t="n">
-        <v>154.21743749</v>
-      </c>
-      <c r="G636" t="n">
-        <v>3855.47992602</v>
-      </c>
-      <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
-      <c r="L636" t="n">
-        <v>1</v>
-      </c>
-      <c r="M636" t="inlineStr"/>
-    </row>
-    <row r="637">
-      <c r="A637" s="1" t="n">
-        <v>635</v>
-      </c>
-      <c r="B637" t="n">
-        <v>331100</v>
-      </c>
-      <c r="C637" t="n">
-        <v>333800</v>
-      </c>
-      <c r="D637" t="n">
-        <v>334400</v>
-      </c>
-      <c r="E637" t="n">
-        <v>331100</v>
-      </c>
-      <c r="F637" t="n">
-        <v>1019.56984086</v>
-      </c>
-      <c r="G637" t="n">
-        <v>4875.04976688</v>
-      </c>
-      <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
-      <c r="L637" t="n">
-        <v>1</v>
-      </c>
-      <c r="M637" t="inlineStr"/>
-    </row>
-    <row r="638">
-      <c r="A638" s="1" t="n">
-        <v>636</v>
-      </c>
-      <c r="B638" t="n">
-        <v>333600</v>
-      </c>
-      <c r="C638" t="n">
-        <v>333700</v>
-      </c>
-      <c r="D638" t="n">
-        <v>333700</v>
-      </c>
-      <c r="E638" t="n">
-        <v>331900</v>
-      </c>
-      <c r="F638" t="n">
-        <v>308.6183</v>
-      </c>
-      <c r="G638" t="n">
-        <v>4566.43146688</v>
-      </c>
-      <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
-      <c r="L638" t="n">
-        <v>1</v>
-      </c>
-      <c r="M638" t="inlineStr"/>
-    </row>
-    <row r="639">
-      <c r="A639" s="1" t="n">
-        <v>637</v>
-      </c>
-      <c r="B639" t="n">
-        <v>333500</v>
-      </c>
-      <c r="C639" t="n">
-        <v>333300</v>
-      </c>
-      <c r="D639" t="n">
-        <v>335000</v>
-      </c>
-      <c r="E639" t="n">
-        <v>333200</v>
-      </c>
-      <c r="F639" t="n">
-        <v>454.80667272</v>
-      </c>
-      <c r="G639" t="n">
-        <v>4111.62479416</v>
-      </c>
-      <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
-      <c r="L639" t="n">
-        <v>1</v>
-      </c>
-      <c r="M639" t="inlineStr"/>
-    </row>
-    <row r="640">
-      <c r="A640" s="1" t="n">
-        <v>638</v>
-      </c>
-      <c r="B640" t="n">
-        <v>333300</v>
-      </c>
-      <c r="C640" t="n">
-        <v>332200</v>
-      </c>
-      <c r="D640" t="n">
-        <v>333400</v>
-      </c>
-      <c r="E640" t="n">
-        <v>331000</v>
-      </c>
-      <c r="F640" t="n">
-        <v>369.0041</v>
-      </c>
-      <c r="G640" t="n">
-        <v>3742.620694159999</v>
-      </c>
-      <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
-      <c r="L640" t="n">
-        <v>1</v>
-      </c>
-      <c r="M640" t="inlineStr"/>
-    </row>
-    <row r="641">
-      <c r="A641" s="1" t="n">
-        <v>639</v>
-      </c>
-      <c r="B641" t="n">
-        <v>331700</v>
-      </c>
-      <c r="C641" t="n">
-        <v>332500</v>
-      </c>
-      <c r="D641" t="n">
-        <v>332500</v>
-      </c>
-      <c r="E641" t="n">
-        <v>331100</v>
-      </c>
-      <c r="F641" t="n">
-        <v>153.4096</v>
-      </c>
-      <c r="G641" t="n">
-        <v>3896.030294159999</v>
-      </c>
-      <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
-      <c r="L641" t="n">
-        <v>1</v>
-      </c>
-      <c r="M641" t="inlineStr"/>
-    </row>
-    <row r="642">
-      <c r="A642" s="1" t="n">
-        <v>640</v>
-      </c>
-      <c r="B642" t="n">
-        <v>332000</v>
-      </c>
-      <c r="C642" t="n">
-        <v>331900</v>
-      </c>
-      <c r="D642" t="n">
-        <v>332000</v>
-      </c>
-      <c r="E642" t="n">
-        <v>330200</v>
-      </c>
-      <c r="F642" t="n">
-        <v>252.3836</v>
-      </c>
-      <c r="G642" t="n">
-        <v>3643.646694159999</v>
-      </c>
-      <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
-      <c r="L642" t="n">
-        <v>1</v>
-      </c>
-      <c r="M642" t="inlineStr"/>
-    </row>
-    <row r="643">
-      <c r="A643" s="1" t="n">
-        <v>641</v>
-      </c>
-      <c r="B643" t="n">
-        <v>331900</v>
-      </c>
-      <c r="C643" t="n">
-        <v>331100</v>
-      </c>
-      <c r="D643" t="n">
-        <v>332600</v>
-      </c>
-      <c r="E643" t="n">
-        <v>331000</v>
-      </c>
-      <c r="F643" t="n">
-        <v>434.9205</v>
-      </c>
-      <c r="G643" t="n">
-        <v>3208.726194159999</v>
-      </c>
-      <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
-      <c r="L643" t="n">
-        <v>1</v>
-      </c>
-      <c r="M643" t="inlineStr"/>
-    </row>
-    <row r="644">
-      <c r="A644" s="1" t="n">
-        <v>642</v>
-      </c>
-      <c r="B644" t="n">
-        <v>331200</v>
-      </c>
-      <c r="C644" t="n">
-        <v>332500</v>
-      </c>
-      <c r="D644" t="n">
-        <v>333100</v>
-      </c>
-      <c r="E644" t="n">
-        <v>331200</v>
-      </c>
-      <c r="F644" t="n">
-        <v>271.9882</v>
-      </c>
-      <c r="G644" t="n">
-        <v>3480.714394159999</v>
-      </c>
-      <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
-      <c r="L644" t="n">
-        <v>1</v>
-      </c>
-      <c r="M644" t="inlineStr"/>
-    </row>
-    <row r="645">
-      <c r="A645" s="1" t="n">
-        <v>643</v>
-      </c>
-      <c r="B645" t="n">
-        <v>332500</v>
-      </c>
-      <c r="C645" t="n">
-        <v>332100</v>
-      </c>
-      <c r="D645" t="n">
-        <v>333000</v>
-      </c>
-      <c r="E645" t="n">
-        <v>332000</v>
-      </c>
-      <c r="F645" t="n">
-        <v>201.72377579</v>
-      </c>
-      <c r="G645" t="n">
-        <v>3278.990618369999</v>
-      </c>
-      <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
-      <c r="L645" t="n">
-        <v>1</v>
-      </c>
-      <c r="M645" t="inlineStr"/>
-    </row>
-    <row r="646">
-      <c r="A646" s="1" t="n">
-        <v>644</v>
-      </c>
-      <c r="B646" t="n">
-        <v>332100</v>
-      </c>
-      <c r="C646" t="n">
-        <v>332600</v>
-      </c>
-      <c r="D646" t="n">
-        <v>333100</v>
-      </c>
-      <c r="E646" t="n">
-        <v>331800</v>
-      </c>
-      <c r="F646" t="n">
-        <v>466.80780147</v>
-      </c>
-      <c r="G646" t="n">
-        <v>3745.798419839999</v>
-      </c>
-      <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
-      <c r="L646" t="n">
-        <v>1</v>
-      </c>
-      <c r="M646" t="inlineStr"/>
-    </row>
-    <row r="647">
-      <c r="A647" s="1" t="n">
-        <v>645</v>
-      </c>
-      <c r="B647" t="n">
-        <v>333000</v>
-      </c>
-      <c r="C647" t="n">
-        <v>333800</v>
-      </c>
-      <c r="D647" t="n">
-        <v>335300</v>
-      </c>
-      <c r="E647" t="n">
-        <v>333000</v>
-      </c>
-      <c r="F647" t="n">
-        <v>399.25393352</v>
-      </c>
-      <c r="G647" t="n">
-        <v>4145.052353359999</v>
-      </c>
-      <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
-      <c r="L647" t="n">
-        <v>1</v>
-      </c>
-      <c r="M647" t="inlineStr"/>
-    </row>
-    <row r="648">
-      <c r="A648" s="1" t="n">
-        <v>646</v>
-      </c>
-      <c r="B648" t="n">
-        <v>334200</v>
-      </c>
-      <c r="C648" t="n">
-        <v>335000</v>
-      </c>
-      <c r="D648" t="n">
-        <v>335000</v>
-      </c>
-      <c r="E648" t="n">
-        <v>333800</v>
-      </c>
-      <c r="F648" t="n">
-        <v>104.2448</v>
-      </c>
-      <c r="G648" t="n">
-        <v>4249.297153359999</v>
-      </c>
-      <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
-      <c r="L648" t="n">
-        <v>1</v>
-      </c>
-      <c r="M648" t="inlineStr"/>
-    </row>
-    <row r="649">
-      <c r="A649" s="1" t="n">
-        <v>647</v>
-      </c>
-      <c r="B649" t="n">
-        <v>335000</v>
-      </c>
-      <c r="C649" t="n">
-        <v>335200</v>
-      </c>
-      <c r="D649" t="n">
-        <v>338000</v>
-      </c>
-      <c r="E649" t="n">
-        <v>335000</v>
-      </c>
-      <c r="F649" t="n">
-        <v>519.61206916</v>
-      </c>
-      <c r="G649" t="n">
-        <v>4768.909222519999</v>
-      </c>
-      <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
-      <c r="L649" t="n">
-        <v>1</v>
-      </c>
-      <c r="M649" t="inlineStr"/>
-    </row>
-    <row r="650">
-      <c r="A650" s="1" t="n">
-        <v>648</v>
-      </c>
-      <c r="B650" t="n">
-        <v>335100</v>
-      </c>
-      <c r="C650" t="n">
-        <v>336800</v>
-      </c>
-      <c r="D650" t="n">
-        <v>337400</v>
-      </c>
-      <c r="E650" t="n">
-        <v>335000</v>
-      </c>
-      <c r="F650" t="n">
-        <v>470.17824391</v>
-      </c>
-      <c r="G650" t="n">
-        <v>5239.087466429999</v>
-      </c>
-      <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
-      <c r="L650" t="n">
-        <v>1</v>
-      </c>
-      <c r="M650" t="inlineStr"/>
-    </row>
-    <row r="651">
-      <c r="A651" s="1" t="n">
-        <v>649</v>
-      </c>
-      <c r="B651" t="n">
-        <v>336700</v>
-      </c>
-      <c r="C651" t="n">
-        <v>339800</v>
-      </c>
-      <c r="D651" t="n">
-        <v>339800</v>
-      </c>
-      <c r="E651" t="n">
-        <v>336500</v>
-      </c>
-      <c r="F651" t="n">
-        <v>605.52122932</v>
-      </c>
-      <c r="G651" t="n">
-        <v>5844.608695749999</v>
-      </c>
-      <c r="H651" t="n">
-        <v>0</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
-      <c r="L651" t="n">
-        <v>1</v>
-      </c>
-      <c r="M651" t="inlineStr"/>
-    </row>
-    <row r="652">
-      <c r="A652" s="1" t="n">
-        <v>650</v>
-      </c>
-      <c r="B652" t="n">
-        <v>339800</v>
-      </c>
-      <c r="C652" t="n">
-        <v>340400</v>
-      </c>
-      <c r="D652" t="n">
-        <v>340900</v>
-      </c>
-      <c r="E652" t="n">
-        <v>339400</v>
-      </c>
-      <c r="F652" t="n">
-        <v>590.85691045</v>
-      </c>
-      <c r="G652" t="n">
-        <v>6435.465606199999</v>
-      </c>
-      <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
-      <c r="L652" t="n">
-        <v>1</v>
-      </c>
-      <c r="M652" t="inlineStr"/>
-    </row>
-    <row r="653">
-      <c r="A653" s="1" t="n">
-        <v>651</v>
-      </c>
-      <c r="B653" t="n">
-        <v>340700</v>
-      </c>
-      <c r="C653" t="n">
-        <v>338700</v>
-      </c>
-      <c r="D653" t="n">
-        <v>341600</v>
-      </c>
-      <c r="E653" t="n">
-        <v>338500</v>
-      </c>
-      <c r="F653" t="n">
-        <v>578.0619</v>
-      </c>
-      <c r="G653" t="n">
-        <v>5857.4037062</v>
-      </c>
-      <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
-      <c r="L653" t="n">
-        <v>1</v>
-      </c>
-      <c r="M653" t="inlineStr"/>
-    </row>
-    <row r="654">
-      <c r="A654" s="1" t="n">
-        <v>652</v>
-      </c>
-      <c r="B654" t="n">
-        <v>338700</v>
-      </c>
-      <c r="C654" t="n">
-        <v>339300</v>
-      </c>
-      <c r="D654" t="n">
-        <v>339600</v>
-      </c>
-      <c r="E654" t="n">
-        <v>337400</v>
-      </c>
-      <c r="F654" t="n">
-        <v>601.7628983</v>
-      </c>
-      <c r="G654" t="n">
-        <v>6459.1666045</v>
-      </c>
-      <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
-      <c r="L654" t="n">
-        <v>1</v>
-      </c>
-      <c r="M654" t="inlineStr"/>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
@@ -23074,7 +23450,7 @@
         <v>6172.934908570001</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -23140,7 +23516,7 @@
         <v>5894.05874352</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -23173,7 +23549,7 @@
         <v>5778.94842906</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -23206,7 +23582,7 @@
         <v>5894.31292906</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -23239,7 +23615,7 @@
         <v>5835.06930083</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -23272,7 +23648,7 @@
         <v>5763.69700083</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23305,7 +23681,7 @@
         <v>5957.371600830001</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23338,7 +23714,7 @@
         <v>5880.51940083</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -23371,7 +23747,7 @@
         <v>5931.19790083</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -23404,7 +23780,7 @@
         <v>5931.19790083</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -23437,7 +23813,7 @@
         <v>6203.459200830001</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -23470,7 +23846,7 @@
         <v>6203.459200830001</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -23503,7 +23879,7 @@
         <v>6642.87450083</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -23536,7 +23912,7 @@
         <v>5808.99329941</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -23569,7 +23945,7 @@
         <v>5403.77229941</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -23602,7 +23978,7 @@
         <v>5109.34541717</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -23635,7 +24011,7 @@
         <v>4923.691717170001</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -23668,7 +24044,7 @@
         <v>5165.59110792</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -23701,7 +24077,7 @@
         <v>4803.171707920001</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -23734,7 +24110,7 @@
         <v>4518.368207920001</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -23767,7 +24143,7 @@
         <v>4856.378380430001</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -23800,7 +24176,7 @@
         <v>4574.105980430001</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -23833,7 +24209,7 @@
         <v>4808.390180430001</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -23866,7 +24242,7 @@
         <v>4870.821080430002</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -23899,7 +24275,7 @@
         <v>4947.877180430001</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -23932,7 +24308,7 @@
         <v>4694.124880430001</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -23965,7 +24341,7 @@
         <v>4535.604380430002</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -23998,7 +24374,7 @@
         <v>4398.729422350001</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -24031,7 +24407,7 @@
         <v>4352.574052580001</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -24064,7 +24440,7 @@
         <v>4388.546152580001</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -24097,7 +24473,7 @@
         <v>4239.057652580001</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -24130,7 +24506,7 @@
         <v>4118.730080390001</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -24163,7 +24539,7 @@
         <v>4347.743436010001</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -24196,7 +24572,7 @@
         <v>4202.50723601</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -24229,7 +24605,7 @@
         <v>4095.59143601</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -24262,7 +24638,7 @@
         <v>4095.59143601</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -24295,7 +24671,7 @@
         <v>4192.28100482</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -24328,7 +24704,7 @@
         <v>4268.89393419</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -24361,7 +24737,7 @@
         <v>4152.774174869999</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -24394,7 +24770,7 @@
         <v>3955.155374869999</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -24427,7 +24803,7 @@
         <v>4053.163774869999</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -24559,7 +24935,7 @@
         <v>4345.65167487</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -24592,7 +24968,7 @@
         <v>4471.91117487</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -24625,7 +25001,7 @@
         <v>4272.73797646</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -24658,7 +25034,7 @@
         <v>4500.97437646</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -24691,7 +25067,7 @@
         <v>3900.28567646</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -24724,7 +25100,7 @@
         <v>3856.14607646</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -33205,7 +33581,7 @@
         <v>4755.835763400003</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -33238,7 +33614,7 @@
         <v>4645.255063400003</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -33271,7 +33647,7 @@
         <v>4731.022263400003</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -33337,7 +33713,7 @@
         <v>4687.486363400003</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -33370,7 +33746,7 @@
         <v>4435.053463400003</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -33403,7 +33779,7 @@
         <v>4464.967463400003</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
